--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -10,8 +10,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -42,8 +43,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -382,343 +384,343 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>TECNICA</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>NUM_RESEC</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>NUM_PAC</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>NOMBRE</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>APELLIDO1</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
         <v>APELLIDO2</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="1" t="str">
         <v>SAP</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="1" t="str">
         <v>COMITE</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="1" t="str">
         <v>SEXO</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="1" t="str">
         <v>EDAT</v>
       </c>
-      <c r="K1" t="str">
+      <c r="K1" s="1" t="str">
         <v>PES</v>
       </c>
-      <c r="L1" t="str">
+      <c r="L1" s="1" t="str">
         <v>Talla</v>
       </c>
-      <c r="M1" t="str">
+      <c r="M1" s="1" t="str">
         <v>IMC</v>
       </c>
-      <c r="N1" t="str">
+      <c r="N1" s="1" t="str">
         <v>ASA</v>
       </c>
-      <c r="O1" t="str">
+      <c r="O1" s="1" t="str">
         <v>DATAIQCOLON</v>
       </c>
-      <c r="P1" t="str">
+      <c r="P1" s="1" t="str">
         <v>EPPO</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="Q1" s="1" t="str">
         <v>DATAHEP</v>
       </c>
-      <c r="R1" t="str">
+      <c r="R1" s="1" t="str">
         <v>RESMAY_MEN_ampli</v>
       </c>
-      <c r="S1" t="str">
+      <c r="S1" s="1" t="str">
         <v>TecnicaQuir_descripció</v>
       </c>
-      <c r="T1" t="str">
+      <c r="T1" s="1" t="str">
         <v>VIA ACCES</v>
       </c>
-      <c r="U1" t="str">
+      <c r="U1" s="1" t="str">
         <v>RF</v>
       </c>
-      <c r="V1" t="str">
+      <c r="V1" s="1" t="str">
         <v>mw</v>
       </c>
-      <c r="W1" t="str">
+      <c r="W1" s="1" t="str">
         <v>Val R cir</v>
       </c>
-      <c r="X1" t="str">
+      <c r="X1" s="1" t="str">
         <v>NMETIMAGpre</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Y1" s="1" t="str">
         <v>MIDA MH  IMATGE</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="Z1" s="1" t="str">
         <v>BILOBUL</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AA1" s="1" t="str">
         <v>RES2</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AB1" s="1" t="str">
         <v>RES3</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AC1" s="1" t="str">
         <v>CIRSIMCOLON</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AD1" s="1" t="str">
         <v>TIPUSCIRSIMCOL</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AE1" s="1" t="str">
         <v>TIPUS CIRCOLONSIM</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AF1" s="1" t="str">
         <v>MORBIDITAT</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AG1" s="1" t="str">
         <v>GRAU CLAVIEN</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AH1" s="1" t="str">
         <v>CCIndex</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AI1" s="1" t="str">
         <v>NMETAP</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AJ1" s="1" t="str">
         <v>MIDA AP</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AK1" s="1" t="str">
         <v>MARGEN</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AL1" s="1" t="str">
         <v>INVMARG</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AM1" s="1" t="str">
         <v>TRATMARGE</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AN1" s="1" t="str">
         <v>DATA ULT CONT</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AO1" s="1" t="str">
         <v>ALPSS</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AP1" s="1" t="str">
         <v>INSUFHEP isgls</v>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AQ1" s="1" t="str">
         <v>ESTAT</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="AR1" s="1" t="str">
         <v>FISTBILI</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="AS1" s="1" t="str">
         <v>Grau IH</v>
       </c>
-      <c r="AT1" t="str">
+      <c r="AT1" s="1" t="str">
         <v>INF ESPAI</v>
       </c>
-      <c r="AU1" t="str">
+      <c r="AU1" s="1" t="str">
         <v>HEMOPER</v>
       </c>
-      <c r="AV1" t="str">
+      <c r="AV1" s="1" t="str">
         <v>ASCITIS</v>
       </c>
-      <c r="AW1" t="str">
+      <c r="AW1" s="1" t="str">
         <v>REIQ</v>
       </c>
-      <c r="AX1" t="str">
+      <c r="AX1" s="1" t="str">
         <v>MORTALITAT</v>
       </c>
-      <c r="AY1" t="str">
+      <c r="AY1" s="1" t="str">
         <v>Causa REIQ</v>
       </c>
-      <c r="AZ1" t="str">
+      <c r="AZ1" s="1" t="str">
         <v>RECIDIVA</v>
       </c>
-      <c r="BA1" t="str">
+      <c r="BA1" s="1" t="str">
         <v>RECHEP</v>
       </c>
-      <c r="BB1" t="str">
+      <c r="BB1" s="1" t="str">
         <v>RECPUL</v>
       </c>
-      <c r="BC1" t="str">
+      <c r="BC1" s="1" t="str">
         <v>ESTADA</v>
       </c>
-      <c r="BD1" t="str">
+      <c r="BD1" s="1" t="str">
         <v>timestamp</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Hepatectomia major + resecció contralateral</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1639</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1502</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <v>JOSE</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <v>MORALES</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="1" t="str">
         <v>PEREZ</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>13804187</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="1" t="str">
         <v>Si</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="1" t="str">
         <v>Home</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="1" t="str">
         <v>58</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2" s="1" t="str">
         <v>77</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>166</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>28</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>42827</v>
       </c>
-      <c r="P2" t="str">
-        <v>No</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="P2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q2" s="2">
         <v>43539</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="1" t="str">
         <v>Resecció Major (&gt;= 3 segm)</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="1" t="str">
         <v>hepat esquerra i rl 7</v>
       </c>
-      <c r="T2" t="str">
+      <c r="T2" s="1" t="str">
         <v>1er temps (mobilització)</v>
       </c>
-      <c r="U2" t="str">
-        <v>No</v>
-      </c>
-      <c r="V2" t="str">
-        <v>No</v>
-      </c>
-      <c r="W2" t="str">
+      <c r="U2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W2" s="1" t="str">
         <v>Impressió R0</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>2</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>4</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="1" t="str">
         <v>Si</v>
       </c>
-      <c r="AA2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AC2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AD2" t="str">
+      <c r="AA2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD2" s="1" t="str">
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="1" t="str">
         <v/>
       </c>
-      <c r="AF2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AG2" t="str">
+      <c r="AF2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG2" s="1" t="str">
         <v>0</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="1">
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="1">
         <v>3</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="1">
         <v>4</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AL2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AM2" t="str">
+      <c r="AL2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AM2" s="1" t="str">
         <v/>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="2">
         <v>44301</v>
       </c>
-      <c r="AO2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AQ2" t="str">
+      <c r="AO2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
         <v>Viu</v>
       </c>
-      <c r="AR2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AS2" t="str">
+      <c r="AR2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS2" s="1" t="str">
         <v/>
       </c>
-      <c r="AT2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AU2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AV2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AW2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AX2" t="str">
-        <v>No</v>
-      </c>
-      <c r="AY2" t="str">
+      <c r="AT2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY2" s="1" t="str">
         <v/>
       </c>
-      <c r="AZ2" t="str">
+      <c r="AZ2" s="1" t="str">
         <v>Si</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BA2" s="1" t="str">
         <v>Si</v>
       </c>
-      <c r="BB2" t="str">
-        <v>No</v>
-      </c>
-      <c r="BC2">
+      <c r="BB2" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC2" s="1">
         <v>5</v>
       </c>
-      <c r="BD2" s="1">
-        <v>44599.61677479167</v>
+      <c r="BD2" s="2">
+        <v>44599.65129613426</v>
       </c>
     </row>
   </sheetData>

--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="BD2" s="2">
-        <v>44599.65129613426</v>
+        <v>44599.83952479166</v>
       </c>
     </row>
   </sheetData>

--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -10,9 +10,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -378,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,305 +428,979 @@
         <v>ASA</v>
       </c>
       <c r="O1" s="1" t="str">
+        <v>EPPO</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>DATAHEP</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <v>RESMAY_MEN_ampli</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <v>TecnicaQuir_descripció</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <v>VIA ACCES</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <v>RF</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <v>mw</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <v>Val R cir</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <v>NMETIMAGpre</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <v>MIDA MH  IMATGE</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <v>BILOBUL</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <v>RES2</v>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <v>RES3</v>
+      </c>
+      <c r="AB1" s="1" t="str">
+        <v>CIRSIMCOLON</v>
+      </c>
+      <c r="AC1" s="1" t="str">
+        <v>TIPUSCIRSIMCOL</v>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <v>TIPUS CIRCOLONSIM</v>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <v>MORBIDITAT</v>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <v>GRAU CLAVIEN</v>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <v>CCIndex</v>
+      </c>
+      <c r="AH1" s="1" t="str">
+        <v>NMETAP</v>
+      </c>
+      <c r="AI1" s="1" t="str">
+        <v>MIDA AP</v>
+      </c>
+      <c r="AJ1" s="1" t="str">
+        <v>MARGEN</v>
+      </c>
+      <c r="AK1" s="1" t="str">
+        <v>INVMARG</v>
+      </c>
+      <c r="AL1" s="1" t="str">
+        <v>TRATMARGE</v>
+      </c>
+      <c r="AM1" s="1" t="str">
+        <v>DATA ULT CONT</v>
+      </c>
+      <c r="AN1" s="1" t="str">
+        <v>ALPSS</v>
+      </c>
+      <c r="AO1" s="1" t="str">
+        <v>INSUFHEP isgls</v>
+      </c>
+      <c r="AP1" s="1" t="str">
+        <v>ESTAT</v>
+      </c>
+      <c r="AQ1" s="1" t="str">
+        <v>FISTBILI</v>
+      </c>
+      <c r="AR1" s="1" t="str">
+        <v>Grau IH</v>
+      </c>
+      <c r="AS1" s="1" t="str">
+        <v>INF ESPAI</v>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <v>HEMOPER</v>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <v>ASCITIS</v>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <v>REIQ</v>
+      </c>
+      <c r="AW1" s="1" t="str">
+        <v>MORTALITAT</v>
+      </c>
+      <c r="AX1" s="1" t="str">
+        <v>Causa REIQ</v>
+      </c>
+      <c r="AY1" s="1" t="str">
+        <v>RECIDIVA</v>
+      </c>
+      <c r="AZ1" s="1" t="str">
+        <v>RECHEP</v>
+      </c>
+      <c r="BA1" s="1" t="str">
+        <v>RECPUL</v>
+      </c>
+      <c r="BB1" s="1" t="str">
+        <v>ESTADA</v>
+      </c>
+      <c r="BC1" s="1" t="str">
+        <v>timestamp</v>
+      </c>
+      <c r="BD1" s="1" t="str">
         <v>DATAIQCOLON</v>
       </c>
-      <c r="P1" s="1" t="str">
-        <v>EPPO</v>
-      </c>
-      <c r="Q1" s="1" t="str">
-        <v>DATAHEP</v>
-      </c>
-      <c r="R1" s="1" t="str">
-        <v>RESMAY_MEN_ampli</v>
-      </c>
-      <c r="S1" s="1" t="str">
-        <v>TecnicaQuir_descripció</v>
-      </c>
-      <c r="T1" s="1" t="str">
-        <v>VIA ACCES</v>
-      </c>
-      <c r="U1" s="1" t="str">
-        <v>RF</v>
-      </c>
-      <c r="V1" s="1" t="str">
-        <v>mw</v>
-      </c>
-      <c r="W1" s="1" t="str">
-        <v>Val R cir</v>
-      </c>
-      <c r="X1" s="1" t="str">
-        <v>NMETIMAGpre</v>
-      </c>
-      <c r="Y1" s="1" t="str">
-        <v>MIDA MH  IMATGE</v>
-      </c>
-      <c r="Z1" s="1" t="str">
-        <v>BILOBUL</v>
-      </c>
-      <c r="AA1" s="1" t="str">
-        <v>RES2</v>
-      </c>
-      <c r="AB1" s="1" t="str">
-        <v>RES3</v>
-      </c>
-      <c r="AC1" s="1" t="str">
-        <v>CIRSIMCOLON</v>
-      </c>
-      <c r="AD1" s="1" t="str">
-        <v>TIPUSCIRSIMCOL</v>
-      </c>
-      <c r="AE1" s="1" t="str">
-        <v>TIPUS CIRCOLONSIM</v>
-      </c>
-      <c r="AF1" s="1" t="str">
-        <v>MORBIDITAT</v>
-      </c>
-      <c r="AG1" s="1" t="str">
-        <v>GRAU CLAVIEN</v>
-      </c>
-      <c r="AH1" s="1" t="str">
-        <v>CCIndex</v>
-      </c>
-      <c r="AI1" s="1" t="str">
-        <v>NMETAP</v>
-      </c>
-      <c r="AJ1" s="1" t="str">
-        <v>MIDA AP</v>
-      </c>
-      <c r="AK1" s="1" t="str">
-        <v>MARGEN</v>
-      </c>
-      <c r="AL1" s="1" t="str">
-        <v>INVMARG</v>
-      </c>
-      <c r="AM1" s="1" t="str">
-        <v>TRATMARGE</v>
-      </c>
-      <c r="AN1" s="1" t="str">
-        <v>DATA ULT CONT</v>
-      </c>
-      <c r="AO1" s="1" t="str">
-        <v>ALPSS</v>
-      </c>
-      <c r="AP1" s="1" t="str">
-        <v>INSUFHEP isgls</v>
-      </c>
-      <c r="AQ1" s="1" t="str">
-        <v>ESTAT</v>
-      </c>
-      <c r="AR1" s="1" t="str">
-        <v>FISTBILI</v>
-      </c>
-      <c r="AS1" s="1" t="str">
-        <v>Grau IH</v>
-      </c>
-      <c r="AT1" s="1" t="str">
-        <v>INF ESPAI</v>
-      </c>
-      <c r="AU1" s="1" t="str">
-        <v>HEMOPER</v>
-      </c>
-      <c r="AV1" s="1" t="str">
-        <v>ASCITIS</v>
-      </c>
-      <c r="AW1" s="1" t="str">
-        <v>REIQ</v>
-      </c>
-      <c r="AX1" s="1" t="str">
-        <v>MORTALITAT</v>
-      </c>
-      <c r="AY1" s="1" t="str">
-        <v>Causa REIQ</v>
-      </c>
-      <c r="AZ1" s="1" t="str">
-        <v>RECIDIVA</v>
-      </c>
-      <c r="BA1" s="1" t="str">
-        <v>RECHEP</v>
-      </c>
-      <c r="BB1" s="1" t="str">
-        <v>RECPUL</v>
-      </c>
-      <c r="BC1" s="1" t="str">
-        <v>ESTADA</v>
-      </c>
-      <c r="BD1" s="1" t="str">
-        <v>timestamp</v>
+      <c r="BE1" s="1" t="str">
+        <v>Data EXITUS</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1693</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1547</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>Moline</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>Masana</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16384162</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>180</v>
+      </c>
+      <c r="M3" s="1">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P3" s="2">
+        <v>43812</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <v>segmentect 4b + tres RL, una al cavocava dret</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF3" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL3" s="1" t="str">
+        <v>VSD</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>43984</v>
+      </c>
+      <c r="AN3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP3" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>10</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>44600.41143956019</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1668</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1528</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>Juan P</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>Montes</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>Alcañiz</v>
+      </c>
+      <c r="G4" s="1">
+        <v>18493694</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1">
+        <v>172</v>
+      </c>
+      <c r="M4" s="1">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P4" s="2">
+        <v>43677</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>6</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF4" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM4" s="2">
+        <v>44462</v>
+      </c>
+      <c r="AN4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP4" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>26</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>44600.411584375</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
         <v>Hepatectomia major + resecció contralateral</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B5" s="1">
         <v>1639</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5" s="1">
         <v>1502</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D5" s="1" t="str">
         <v>JOSE</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E5" s="1" t="str">
         <v>MORALES</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F5" s="1" t="str">
         <v>PEREZ</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G5" s="1">
         <v>13804187</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <v>Si</v>
-      </c>
-      <c r="I2" s="1" t="str">
+      <c r="H5" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I5" s="1" t="str">
         <v>Home</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J5" s="1" t="str">
         <v>58</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="K5" s="1" t="str">
         <v>77</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L5" s="1">
         <v>166</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M5" s="1">
         <v>28</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N5" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P5" s="2">
+        <v>43539</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <v>hepat esquerra i rl 7</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF5" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AK5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM5" s="2">
+        <v>44301</v>
+      </c>
+      <c r="AN5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP5" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ5" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>44600.41175078704</v>
+      </c>
+      <c r="BD5" s="2">
         <v>42827</v>
       </c>
-      <c r="P2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>43539</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <v>Resecció Major (&gt;= 3 segm)</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <v>hepat esquerra i rl 7</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <v>1er temps (mobilització)</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="W2" s="1" t="str">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1415</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="L6" s="1">
+        <v>166</v>
+      </c>
+      <c r="M6" s="1">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P6" s="2">
+        <v>43686</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF6" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AL6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM6" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AN6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP6" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AQ6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BB6" s="1">
+        <v>23</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>44600.41269053241</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1642</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1505</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>JOSE</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>PELLISA</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>BESALDUCH</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10044215</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="L7" s="1">
+        <v>173</v>
+      </c>
+      <c r="M7" s="1">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P7" s="2">
+        <v>43564</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <v>segment 3 + res lim 4/8</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V7" s="1" t="str">
         <v>Impressió R0</v>
       </c>
-      <c r="X2" s="1">
+      <c r="W7" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="X7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF7" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AK7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <v>afectat d'entrada s'amplia el marge amb 4 mm de parenquima</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>44133</v>
+      </c>
+      <c r="AN7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP7" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB7" s="1">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="str">
-        <v>Si</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AB2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AC2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AD2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AE2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AF2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AG2" s="1" t="str">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AL2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AM2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AN2" s="2">
-        <v>44301</v>
-      </c>
-      <c r="AO2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AP2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AQ2" s="1" t="str">
-        <v>Viu</v>
-      </c>
-      <c r="AR2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AS2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AT2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AU2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AV2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AW2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AX2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AY2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="AZ2" s="1" t="str">
-        <v>Si</v>
-      </c>
-      <c r="BA2" s="1" t="str">
-        <v>Si</v>
-      </c>
-      <c r="BB2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>44599.83952479166</v>
+      <c r="BC7" s="2">
+        <v>44600.41285739584</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>43739</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BE7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4234,9 +4234,510 @@
         <v>44601.39423457176</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L30" s="1">
+        <v>160</v>
+      </c>
+      <c r="M30" s="1">
+        <v>26</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P30" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T30" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>5</v>
+      </c>
+      <c r="X30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM30" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP30" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA30" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC30" s="2">
+        <v>44601.45921204861</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G31" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L31" s="1">
+        <v>160</v>
+      </c>
+      <c r="M31" s="1">
+        <v>26</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P31" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S31" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T31" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>5</v>
+      </c>
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM31" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP31" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA31" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC31" s="2">
+        <v>44601.50144306713</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G32" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1">
+        <v>160</v>
+      </c>
+      <c r="M32" s="1">
+        <v>26</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P32" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S32" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T32" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>5</v>
+      </c>
+      <c r="X32" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM32" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP32" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC32" s="2">
+        <v>44601.50901857639</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>43621</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4735,9 +4735,2153 @@
         <v>43621</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G33" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L33" s="1">
+        <v>160</v>
+      </c>
+      <c r="M33" s="1">
+        <v>26</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P33" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S33" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T33" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>5</v>
+      </c>
+      <c r="X33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM33" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP33" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA33" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC33" s="2">
+        <v>44601.51434837963</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G34" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L34" s="1">
+        <v>160</v>
+      </c>
+      <c r="M34" s="1">
+        <v>26</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P34" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T34" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>5</v>
+      </c>
+      <c r="X34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF34" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM34" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP34" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC34" s="2">
+        <v>44601.517018136576</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L35" s="1">
+        <v>160</v>
+      </c>
+      <c r="M35" s="1">
+        <v>26</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P35" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T35" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>5</v>
+      </c>
+      <c r="X35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF35" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM35" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP35" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC35" s="2">
+        <v>44601.517682199075</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G36" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L36" s="1">
+        <v>160</v>
+      </c>
+      <c r="M36" s="1">
+        <v>26</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P36" s="2">
+        <v>43784</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T36" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>5</v>
+      </c>
+      <c r="X36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AA36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM36" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AN36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP36" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BA36" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC36" s="2">
+        <v>44601.51843275463</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G37" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L37" s="1">
+        <v>177</v>
+      </c>
+      <c r="M37" s="1">
+        <v>27</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P37" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T37" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V37" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W37" s="1">
+        <v>4</v>
+      </c>
+      <c r="X37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL37" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP37" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>44601.52564627315</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G38" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L38" s="1">
+        <v>177</v>
+      </c>
+      <c r="M38" s="1">
+        <v>27</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P38" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R38" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T38" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>4</v>
+      </c>
+      <c r="X38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL38" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP38" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>44601.543230208335</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G39" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L39" s="1">
+        <v>177</v>
+      </c>
+      <c r="M39" s="1">
+        <v>27</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P39" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R39" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T39" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V39" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>4</v>
+      </c>
+      <c r="X39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH39" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL39" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP39" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>44601.54353163194</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G40" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L40" s="1">
+        <v>177</v>
+      </c>
+      <c r="M40" s="1">
+        <v>27</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P40" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R40" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T40" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V40" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>4</v>
+      </c>
+      <c r="X40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL40" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP40" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>44601.54662415509</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G41" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L41" s="1">
+        <v>177</v>
+      </c>
+      <c r="M41" s="1">
+        <v>27</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P41" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R41" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S41" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T41" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V41" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>4</v>
+      </c>
+      <c r="X41" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH41" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL41" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP41" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX41" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>44601.55571533565</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G42" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L42" s="1">
+        <v>177</v>
+      </c>
+      <c r="M42" s="1">
+        <v>27</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P42" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R42" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S42" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T42" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V42" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>4</v>
+      </c>
+      <c r="X42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH42" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL42" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP42" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX42" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>44601.55589729167</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G43" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L43" s="1">
+        <v>177</v>
+      </c>
+      <c r="M43" s="1">
+        <v>27</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P43" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R43" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T43" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V43" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>4</v>
+      </c>
+      <c r="X43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL43" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM43" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP43" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>44601.5571856713</v>
+      </c>
+      <c r="BD43" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G44" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L44" s="1">
+        <v>177</v>
+      </c>
+      <c r="M44" s="1">
+        <v>27</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P44" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R44" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S44" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T44" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V44" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>4</v>
+      </c>
+      <c r="X44" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH44" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL44" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM44" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP44" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC44" s="2">
+        <v>44601.55736556713</v>
+      </c>
+      <c r="BD44" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G45" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L45" s="1">
+        <v>177</v>
+      </c>
+      <c r="M45" s="1">
+        <v>27</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P45" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R45" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S45" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T45" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V45" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>4</v>
+      </c>
+      <c r="X45" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH45" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL45" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM45" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP45" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>44602.36178650463</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD45"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6879,9 +6879,173 @@
         <v>43495</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G46" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L46" s="1">
+        <v>177</v>
+      </c>
+      <c r="M46" s="1">
+        <v>27</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P46" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R46" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S46" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T46" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V46" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>4</v>
+      </c>
+      <c r="X46" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL46" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM46" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP46" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC46" s="2">
+        <v>44604.50547204861</v>
+      </c>
+      <c r="BD46" s="2">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7043,9 +7043,665 @@
         <v>43495</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G47" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L47" s="1">
+        <v>177</v>
+      </c>
+      <c r="M47" s="1">
+        <v>27</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P47" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R47" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S47" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T47" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V47" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>4</v>
+      </c>
+      <c r="X47" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH47" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL47" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM47" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP47" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>44604.58634548611</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G48" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L48" s="1">
+        <v>177</v>
+      </c>
+      <c r="M48" s="1">
+        <v>27</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2</v>
+      </c>
+      <c r="O48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P48" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q48" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R48" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S48" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T48" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V48" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>4</v>
+      </c>
+      <c r="X48" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH48" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL48" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM48" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP48" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC48" s="2">
+        <v>44604.592575636576</v>
+      </c>
+      <c r="BD48" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G49" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L49" s="1">
+        <v>177</v>
+      </c>
+      <c r="M49" s="1">
+        <v>27</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P49" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q49" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R49" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S49" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T49" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W49" s="1">
+        <v>4</v>
+      </c>
+      <c r="X49" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH49" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL49" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM49" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP49" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>44604.59280505787</v>
+      </c>
+      <c r="BD49" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G50" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L50" s="1">
+        <v>177</v>
+      </c>
+      <c r="M50" s="1">
+        <v>27</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="O50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P50" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q50" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R50" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S50" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T50" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V50" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W50" s="1">
+        <v>4</v>
+      </c>
+      <c r="X50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH50" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL50" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM50" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP50" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC50" s="2">
+        <v>44604.59583517361</v>
+      </c>
+      <c r="BD50" s="2">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD50"/>
+  <dimension ref="A1:BD52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7699,9 +7699,337 @@
         <v>43495</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G51" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L51" s="1">
+        <v>177</v>
+      </c>
+      <c r="M51" s="1">
+        <v>27</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2</v>
+      </c>
+      <c r="O51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P51" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q51" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R51" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S51" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T51" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V51" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W51" s="1">
+        <v>4</v>
+      </c>
+      <c r="X51" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH51" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL51" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM51" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP51" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC51" s="2">
+        <v>44605.694823854166</v>
+      </c>
+      <c r="BD51" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G52" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L52" s="1">
+        <v>177</v>
+      </c>
+      <c r="M52" s="1">
+        <v>27</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P52" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q52" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R52" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S52" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T52" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V52" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>4</v>
+      </c>
+      <c r="X52" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH52" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL52" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM52" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP52" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC52" s="2">
+        <v>44605.69677539352</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD52"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD52"/>
+  <dimension ref="A1:BD53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8027,9 +8027,173 @@
         <v>43495</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G53" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L53" s="1">
+        <v>177</v>
+      </c>
+      <c r="M53" s="1">
+        <v>27</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2</v>
+      </c>
+      <c r="O53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P53" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q53" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R53" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S53" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T53" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V53" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>4</v>
+      </c>
+      <c r="X53" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH53" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL53" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM53" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP53" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>44605.75277976852</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD53"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BD91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8191,9 +8191,6343 @@
         <v>43495</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G54" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L54" s="1">
+        <v>177</v>
+      </c>
+      <c r="M54" s="1">
+        <v>27</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P54" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q54" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R54" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S54" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T54" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V54" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W54" s="1">
+        <v>4</v>
+      </c>
+      <c r="X54" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH54" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL54" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM54" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP54" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC54" s="2">
+        <v>44605.79436997685</v>
+      </c>
+      <c r="BD54" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G55" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L55" s="1">
+        <v>177</v>
+      </c>
+      <c r="M55" s="1">
+        <v>27</v>
+      </c>
+      <c r="N55" s="1">
+        <v>2</v>
+      </c>
+      <c r="O55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P55" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q55" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R55" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S55" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T55" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V55" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W55" s="1">
+        <v>4</v>
+      </c>
+      <c r="X55" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH55" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL55" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM55" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP55" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC55" s="2">
+        <v>44605.80163608796</v>
+      </c>
+      <c r="BD55" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G56" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L56" s="1">
+        <v>177</v>
+      </c>
+      <c r="M56" s="1">
+        <v>27</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2</v>
+      </c>
+      <c r="O56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P56" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q56" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R56" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S56" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T56" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V56" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W56" s="1">
+        <v>4</v>
+      </c>
+      <c r="X56" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH56" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL56" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM56" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP56" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC56" s="2">
+        <v>44605.802809305555</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1674</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1532</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <v>Bros</v>
+      </c>
+      <c r="G57" s="1">
+        <v>16221522</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="L57" s="1">
+        <v>177</v>
+      </c>
+      <c r="M57" s="1">
+        <v>27</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2</v>
+      </c>
+      <c r="O57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P57" s="2">
+        <v>43699</v>
+      </c>
+      <c r="Q57" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R57" s="1" t="str">
+        <v>reseccio del caudat, tres enucleacions i una RF</v>
+      </c>
+      <c r="S57" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T57" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="U57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V57" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="W57" s="1">
+        <v>4</v>
+      </c>
+      <c r="X57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Z57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AH57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AL57" s="1" t="str">
+        <v>aquamantis a totes les reseccions</v>
+      </c>
+      <c r="AM57" s="2">
+        <v>44022</v>
+      </c>
+      <c r="AN57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AP57" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AR57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AU57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AV57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AW57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AX57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>44605.804915775465</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L58" s="1">
+        <v>172</v>
+      </c>
+      <c r="M58" s="1">
+        <v>27</v>
+      </c>
+      <c r="N58" s="1">
+        <v>2</v>
+      </c>
+      <c r="O58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P58" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q58" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R58" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S58" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V58" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF58" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM58" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP58" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB58" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC58" s="2">
+        <v>44605.814987777776</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G59" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L59" s="1">
+        <v>172</v>
+      </c>
+      <c r="M59" s="1">
+        <v>27</v>
+      </c>
+      <c r="N59" s="1">
+        <v>2</v>
+      </c>
+      <c r="O59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P59" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q59" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R59" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S59" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V59" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF59" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM59" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP59" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB59" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC59" s="2">
+        <v>44605.8198156713</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G60" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K60" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L60" s="1">
+        <v>172</v>
+      </c>
+      <c r="M60" s="1">
+        <v>27</v>
+      </c>
+      <c r="N60" s="1">
+        <v>2</v>
+      </c>
+      <c r="O60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P60" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q60" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R60" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S60" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V60" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>1</v>
+      </c>
+      <c r="X60" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA60" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC60" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD60" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF60" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL60" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM60" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP60" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR60" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX60" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB60" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC60" s="2">
+        <v>44605.82052003472</v>
+      </c>
+      <c r="BD60" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G61" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K61" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L61" s="1">
+        <v>172</v>
+      </c>
+      <c r="M61" s="1">
+        <v>27</v>
+      </c>
+      <c r="N61" s="1">
+        <v>2</v>
+      </c>
+      <c r="O61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P61" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q61" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R61" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S61" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V61" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF61" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM61" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP61" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX61" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB61" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC61" s="2">
+        <v>44605.82149578704</v>
+      </c>
+      <c r="BD61" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G62" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K62" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L62" s="1">
+        <v>172</v>
+      </c>
+      <c r="M62" s="1">
+        <v>27</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2</v>
+      </c>
+      <c r="O62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P62" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q62" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R62" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S62" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V62" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA62" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC62" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD62" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF62" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL62" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM62" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP62" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR62" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX62" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB62" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC62" s="2">
+        <v>44605.8222</v>
+      </c>
+      <c r="BD62" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G63" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K63" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L63" s="1">
+        <v>172</v>
+      </c>
+      <c r="M63" s="1">
+        <v>27</v>
+      </c>
+      <c r="N63" s="1">
+        <v>2</v>
+      </c>
+      <c r="O63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P63" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q63" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R63" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S63" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V63" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1</v>
+      </c>
+      <c r="X63" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA63" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC63" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD63" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF63" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL63" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM63" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP63" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR63" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX63" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB63" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC63" s="2">
+        <v>44605.82344078704</v>
+      </c>
+      <c r="BD63" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G64" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K64" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L64" s="1">
+        <v>172</v>
+      </c>
+      <c r="M64" s="1">
+        <v>27</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2</v>
+      </c>
+      <c r="O64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P64" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q64" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R64" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S64" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V64" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>1</v>
+      </c>
+      <c r="X64" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA64" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC64" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD64" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF64" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL64" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM64" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP64" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR64" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX64" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB64" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC64" s="2">
+        <v>44605.82373174769</v>
+      </c>
+      <c r="BD64" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G65" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L65" s="1">
+        <v>172</v>
+      </c>
+      <c r="M65" s="1">
+        <v>27</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2</v>
+      </c>
+      <c r="O65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P65" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q65" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R65" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S65" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V65" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA65" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC65" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD65" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF65" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL65" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM65" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP65" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR65" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX65" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB65" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC65" s="2">
+        <v>44605.823993275466</v>
+      </c>
+      <c r="BD65" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G66" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I66" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J66" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K66" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L66" s="1">
+        <v>172</v>
+      </c>
+      <c r="M66" s="1">
+        <v>27</v>
+      </c>
+      <c r="N66" s="1">
+        <v>2</v>
+      </c>
+      <c r="O66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P66" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q66" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R66" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S66" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V66" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>1</v>
+      </c>
+      <c r="X66" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF66" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM66" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP66" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX66" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA66" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB66" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC66" s="2">
+        <v>44605.82425391204</v>
+      </c>
+      <c r="BD66" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G67" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I67" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J67" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K67" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L67" s="1">
+        <v>172</v>
+      </c>
+      <c r="M67" s="1">
+        <v>27</v>
+      </c>
+      <c r="N67" s="1">
+        <v>2</v>
+      </c>
+      <c r="O67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P67" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q67" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R67" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S67" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V67" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>1</v>
+      </c>
+      <c r="X67" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA67" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC67" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD67" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF67" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL67" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM67" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP67" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR67" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX67" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA67" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC67" s="2">
+        <v>44605.82455693287</v>
+      </c>
+      <c r="BD67" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G68" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J68" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K68" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L68" s="1">
+        <v>172</v>
+      </c>
+      <c r="M68" s="1">
+        <v>27</v>
+      </c>
+      <c r="N68" s="1">
+        <v>2</v>
+      </c>
+      <c r="O68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P68" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q68" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R68" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S68" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V68" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>1</v>
+      </c>
+      <c r="X68" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA68" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC68" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD68" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF68" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL68" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM68" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP68" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR68" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX68" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA68" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB68" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC68" s="2">
+        <v>44605.82472332176</v>
+      </c>
+      <c r="BD68" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G69" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J69" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K69" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L69" s="1">
+        <v>172</v>
+      </c>
+      <c r="M69" s="1">
+        <v>27</v>
+      </c>
+      <c r="N69" s="1">
+        <v>2</v>
+      </c>
+      <c r="O69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P69" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q69" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R69" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S69" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V69" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>1</v>
+      </c>
+      <c r="X69" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA69" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC69" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD69" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF69" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL69" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM69" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP69" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR69" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX69" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA69" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB69" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC69" s="2">
+        <v>44605.82507769676</v>
+      </c>
+      <c r="BD69" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G70" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K70" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L70" s="1">
+        <v>172</v>
+      </c>
+      <c r="M70" s="1">
+        <v>27</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2</v>
+      </c>
+      <c r="O70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P70" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q70" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R70" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S70" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V70" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>1</v>
+      </c>
+      <c r="X70" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA70" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC70" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD70" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF70" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL70" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM70" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP70" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR70" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX70" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA70" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC70" s="2">
+        <v>44605.82536524306</v>
+      </c>
+      <c r="BD70" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G71" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J71" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K71" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L71" s="1">
+        <v>172</v>
+      </c>
+      <c r="M71" s="1">
+        <v>27</v>
+      </c>
+      <c r="N71" s="1">
+        <v>2</v>
+      </c>
+      <c r="O71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P71" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q71" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R71" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S71" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V71" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF71" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM71" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP71" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX71" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA71" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB71" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC71" s="2">
+        <v>44605.82678859954</v>
+      </c>
+      <c r="BD71" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G72" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I72" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J72" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K72" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L72" s="1">
+        <v>172</v>
+      </c>
+      <c r="M72" s="1">
+        <v>27</v>
+      </c>
+      <c r="N72" s="1">
+        <v>2</v>
+      </c>
+      <c r="O72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P72" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q72" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R72" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S72" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V72" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>1</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA72" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC72" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD72" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF72" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL72" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM72" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP72" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR72" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX72" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA72" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB72" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC72" s="2">
+        <v>44605.82702834491</v>
+      </c>
+      <c r="BD72" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G73" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I73" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J73" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K73" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L73" s="1">
+        <v>172</v>
+      </c>
+      <c r="M73" s="1">
+        <v>27</v>
+      </c>
+      <c r="N73" s="1">
+        <v>2</v>
+      </c>
+      <c r="O73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P73" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q73" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R73" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S73" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V73" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1</v>
+      </c>
+      <c r="X73" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA73" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC73" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD73" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF73" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL73" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM73" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP73" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR73" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX73" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA73" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB73" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC73" s="2">
+        <v>44605.82726953704</v>
+      </c>
+      <c r="BD73" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G74" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I74" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J74" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K74" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L74" s="1">
+        <v>172</v>
+      </c>
+      <c r="M74" s="1">
+        <v>27</v>
+      </c>
+      <c r="N74" s="1">
+        <v>2</v>
+      </c>
+      <c r="O74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P74" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q74" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R74" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S74" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V74" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>1</v>
+      </c>
+      <c r="X74" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA74" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC74" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD74" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF74" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL74" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM74" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP74" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR74" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX74" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA74" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC74" s="2">
+        <v>44605.827481168984</v>
+      </c>
+      <c r="BD74" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G75" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J75" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L75" s="1">
+        <v>172</v>
+      </c>
+      <c r="M75" s="1">
+        <v>27</v>
+      </c>
+      <c r="N75" s="1">
+        <v>2</v>
+      </c>
+      <c r="O75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P75" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q75" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R75" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S75" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V75" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>1</v>
+      </c>
+      <c r="X75" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA75" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC75" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD75" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF75" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL75" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM75" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP75" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR75" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX75" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA75" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB75" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC75" s="2">
+        <v>44605.82768234954</v>
+      </c>
+      <c r="BD75" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G76" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I76" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J76" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K76" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L76" s="1">
+        <v>172</v>
+      </c>
+      <c r="M76" s="1">
+        <v>27</v>
+      </c>
+      <c r="N76" s="1">
+        <v>2</v>
+      </c>
+      <c r="O76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P76" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q76" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R76" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S76" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V76" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>1</v>
+      </c>
+      <c r="X76" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF76" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM76" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP76" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX76" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA76" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB76" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC76" s="2">
+        <v>44605.82801262732</v>
+      </c>
+      <c r="BD76" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G77" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J77" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K77" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L77" s="1">
+        <v>172</v>
+      </c>
+      <c r="M77" s="1">
+        <v>27</v>
+      </c>
+      <c r="N77" s="1">
+        <v>2</v>
+      </c>
+      <c r="O77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P77" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q77" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R77" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S77" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V77" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>1</v>
+      </c>
+      <c r="X77" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA77" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC77" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD77" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF77" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL77" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM77" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP77" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR77" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX77" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA77" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB77" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC77" s="2">
+        <v>44605.82849380787</v>
+      </c>
+      <c r="BD77" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G78" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I78" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J78" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K78" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L78" s="1">
+        <v>172</v>
+      </c>
+      <c r="M78" s="1">
+        <v>27</v>
+      </c>
+      <c r="N78" s="1">
+        <v>2</v>
+      </c>
+      <c r="O78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P78" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q78" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R78" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S78" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V78" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W78" s="1">
+        <v>1</v>
+      </c>
+      <c r="X78" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF78" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM78" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP78" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA78" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC78" s="2">
+        <v>44605.828668043985</v>
+      </c>
+      <c r="BD78" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G79" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I79" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J79" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K79" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L79" s="1">
+        <v>172</v>
+      </c>
+      <c r="M79" s="1">
+        <v>27</v>
+      </c>
+      <c r="N79" s="1">
+        <v>2</v>
+      </c>
+      <c r="O79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P79" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q79" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R79" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S79" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V79" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W79" s="1">
+        <v>1</v>
+      </c>
+      <c r="X79" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF79" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM79" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP79" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA79" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB79" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC79" s="2">
+        <v>44605.83052703704</v>
+      </c>
+      <c r="BD79" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G80" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J80" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K80" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L80" s="1">
+        <v>172</v>
+      </c>
+      <c r="M80" s="1">
+        <v>27</v>
+      </c>
+      <c r="N80" s="1">
+        <v>2</v>
+      </c>
+      <c r="O80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P80" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q80" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R80" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S80" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V80" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>1</v>
+      </c>
+      <c r="X80" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF80" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM80" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP80" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA80" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB80" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC80" s="2">
+        <v>44605.831134583335</v>
+      </c>
+      <c r="BD80" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G81" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I81" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J81" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L81" s="1">
+        <v>172</v>
+      </c>
+      <c r="M81" s="1">
+        <v>27</v>
+      </c>
+      <c r="N81" s="1">
+        <v>2</v>
+      </c>
+      <c r="O81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P81" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q81" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R81" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S81" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V81" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>1</v>
+      </c>
+      <c r="X81" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF81" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ81" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM81" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP81" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA81" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB81" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC81" s="2">
+        <v>44605.83395179398</v>
+      </c>
+      <c r="BD81" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G82" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J82" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K82" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L82" s="1">
+        <v>172</v>
+      </c>
+      <c r="M82" s="1">
+        <v>27</v>
+      </c>
+      <c r="N82" s="1">
+        <v>2</v>
+      </c>
+      <c r="O82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P82" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q82" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R82" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S82" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V82" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>1</v>
+      </c>
+      <c r="X82" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF82" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM82" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP82" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA82" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB82" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC82" s="2">
+        <v>44605.83482993056</v>
+      </c>
+      <c r="BD82" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G83" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I83" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J83" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K83" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L83" s="1">
+        <v>172</v>
+      </c>
+      <c r="M83" s="1">
+        <v>27</v>
+      </c>
+      <c r="N83" s="1">
+        <v>2</v>
+      </c>
+      <c r="O83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P83" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q83" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R83" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S83" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V83" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W83" s="1">
+        <v>1</v>
+      </c>
+      <c r="X83" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF83" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ83" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM83" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP83" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA83" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB83" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC83" s="2">
+        <v>44605.835079791665</v>
+      </c>
+      <c r="BD83" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G84" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J84" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L84" s="1">
+        <v>172</v>
+      </c>
+      <c r="M84" s="1">
+        <v>27</v>
+      </c>
+      <c r="N84" s="1">
+        <v>2</v>
+      </c>
+      <c r="O84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P84" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q84" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R84" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S84" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V84" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>1</v>
+      </c>
+      <c r="X84" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA84" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC84" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD84" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF84" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL84" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM84" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP84" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR84" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX84" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA84" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB84" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC84" s="2">
+        <v>44605.83575752315</v>
+      </c>
+      <c r="BD84" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G85" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J85" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K85" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L85" s="1">
+        <v>172</v>
+      </c>
+      <c r="M85" s="1">
+        <v>27</v>
+      </c>
+      <c r="N85" s="1">
+        <v>2</v>
+      </c>
+      <c r="O85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P85" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q85" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R85" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S85" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V85" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>1</v>
+      </c>
+      <c r="X85" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA85" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC85" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD85" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF85" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ85" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL85" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM85" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP85" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR85" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX85" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA85" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB85" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC85" s="2">
+        <v>44605.836501261576</v>
+      </c>
+      <c r="BD85" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G86" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I86" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J86" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K86" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L86" s="1">
+        <v>172</v>
+      </c>
+      <c r="M86" s="1">
+        <v>27</v>
+      </c>
+      <c r="N86" s="1">
+        <v>2</v>
+      </c>
+      <c r="O86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P86" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q86" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R86" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S86" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V86" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W86" s="1">
+        <v>1</v>
+      </c>
+      <c r="X86" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF86" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM86" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP86" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX86" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA86" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB86" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC86" s="2">
+        <v>44605.83703495371</v>
+      </c>
+      <c r="BD86" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G87" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I87" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J87" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K87" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L87" s="1">
+        <v>172</v>
+      </c>
+      <c r="M87" s="1">
+        <v>27</v>
+      </c>
+      <c r="N87" s="1">
+        <v>2</v>
+      </c>
+      <c r="O87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P87" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q87" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R87" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S87" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V87" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W87" s="1">
+        <v>1</v>
+      </c>
+      <c r="X87" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA87" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC87" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD87" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF87" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL87" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM87" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP87" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR87" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX87" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA87" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB87" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC87" s="2">
+        <v>44605.83749871528</v>
+      </c>
+      <c r="BD87" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G88" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I88" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J88" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K88" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L88" s="1">
+        <v>172</v>
+      </c>
+      <c r="M88" s="1">
+        <v>27</v>
+      </c>
+      <c r="N88" s="1">
+        <v>2</v>
+      </c>
+      <c r="O88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P88" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q88" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R88" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S88" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V88" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W88" s="1">
+        <v>1</v>
+      </c>
+      <c r="X88" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA88" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC88" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD88" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF88" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL88" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM88" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP88" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR88" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX88" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA88" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB88" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC88" s="2">
+        <v>44605.83807247685</v>
+      </c>
+      <c r="BD88" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G89" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I89" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J89" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K89" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L89" s="1">
+        <v>172</v>
+      </c>
+      <c r="M89" s="1">
+        <v>27</v>
+      </c>
+      <c r="N89" s="1">
+        <v>2</v>
+      </c>
+      <c r="O89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P89" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q89" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R89" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S89" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V89" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W89" s="1">
+        <v>1</v>
+      </c>
+      <c r="X89" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA89" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC89" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD89" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF89" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL89" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM89" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP89" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR89" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX89" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA89" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB89" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC89" s="2">
+        <v>44605.8383266088</v>
+      </c>
+      <c r="BD89" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G90" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I90" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J90" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K90" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L90" s="1">
+        <v>172</v>
+      </c>
+      <c r="M90" s="1">
+        <v>27</v>
+      </c>
+      <c r="N90" s="1">
+        <v>2</v>
+      </c>
+      <c r="O90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P90" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q90" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R90" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S90" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V90" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W90" s="1">
+        <v>1</v>
+      </c>
+      <c r="X90" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA90" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC90" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD90" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF90" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL90" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM90" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP90" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR90" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX90" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA90" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB90" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC90" s="2">
+        <v>44605.838674872684</v>
+      </c>
+      <c r="BD90" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G91" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I91" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J91" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K91" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L91" s="1">
+        <v>172</v>
+      </c>
+      <c r="M91" s="1">
+        <v>27</v>
+      </c>
+      <c r="N91" s="1">
+        <v>2</v>
+      </c>
+      <c r="O91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P91" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q91" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R91" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S91" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V91" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W91" s="1">
+        <v>1</v>
+      </c>
+      <c r="X91" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF91" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM91" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP91" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX91" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA91" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB91" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC91" s="2">
+        <v>44605.838929722224</v>
+      </c>
+      <c r="BD91" s="2">
+        <v>43726</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD91"/>
+  <dimension ref="A1:BD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14525,9 +14525,2681 @@
         <v>43726</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G92" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I92" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J92" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K92" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L92" s="1">
+        <v>172</v>
+      </c>
+      <c r="M92" s="1">
+        <v>27</v>
+      </c>
+      <c r="N92" s="1">
+        <v>2</v>
+      </c>
+      <c r="O92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P92" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q92" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R92" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S92" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V92" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W92" s="1">
+        <v>1</v>
+      </c>
+      <c r="X92" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA92" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC92" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD92" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF92" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ92" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL92" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM92" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP92" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR92" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX92" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA92" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB92" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC92" s="2">
+        <v>44605.89265090278</v>
+      </c>
+      <c r="BD92" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G93" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I93" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K93" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L93" s="1">
+        <v>172</v>
+      </c>
+      <c r="M93" s="1">
+        <v>27</v>
+      </c>
+      <c r="N93" s="1">
+        <v>2</v>
+      </c>
+      <c r="O93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P93" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q93" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R93" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S93" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V93" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W93" s="1">
+        <v>1</v>
+      </c>
+      <c r="X93" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA93" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC93" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD93" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF93" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL93" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM93" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP93" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR93" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX93" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA93" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB93" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC93" s="2">
+        <v>44605.902078506944</v>
+      </c>
+      <c r="BD93" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G94" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J94" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K94" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L94" s="1">
+        <v>172</v>
+      </c>
+      <c r="M94" s="1">
+        <v>27</v>
+      </c>
+      <c r="N94" s="1">
+        <v>2</v>
+      </c>
+      <c r="O94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P94" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q94" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R94" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S94" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V94" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W94" s="1">
+        <v>1</v>
+      </c>
+      <c r="X94" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF94" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM94" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP94" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA94" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB94" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC94" s="2">
+        <v>44605.903928611115</v>
+      </c>
+      <c r="BD94" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G95" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I95" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J95" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K95" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L95" s="1">
+        <v>172</v>
+      </c>
+      <c r="M95" s="1">
+        <v>27</v>
+      </c>
+      <c r="N95" s="1">
+        <v>2</v>
+      </c>
+      <c r="O95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P95" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q95" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R95" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S95" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V95" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W95" s="1">
+        <v>1</v>
+      </c>
+      <c r="X95" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA95" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC95" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD95" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF95" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL95" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM95" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP95" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR95" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX95" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA95" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB95" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC95" s="2">
+        <v>44605.90500126158</v>
+      </c>
+      <c r="BD95" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G96" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I96" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J96" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K96" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L96" s="1">
+        <v>172</v>
+      </c>
+      <c r="M96" s="1">
+        <v>27</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2</v>
+      </c>
+      <c r="O96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P96" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q96" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R96" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S96" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V96" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W96" s="1">
+        <v>1</v>
+      </c>
+      <c r="X96" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF96" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM96" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP96" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX96" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA96" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB96" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC96" s="2">
+        <v>44605.905779305554</v>
+      </c>
+      <c r="BD96" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G97" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J97" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K97" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L97" s="1">
+        <v>172</v>
+      </c>
+      <c r="M97" s="1">
+        <v>27</v>
+      </c>
+      <c r="N97" s="1">
+        <v>2</v>
+      </c>
+      <c r="O97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P97" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q97" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R97" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S97" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V97" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W97" s="1">
+        <v>1</v>
+      </c>
+      <c r="X97" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF97" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM97" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP97" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA97" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB97" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC97" s="2">
+        <v>44605.907185474534</v>
+      </c>
+      <c r="BD97" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G98" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J98" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K98" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L98" s="1">
+        <v>172</v>
+      </c>
+      <c r="M98" s="1">
+        <v>27</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2</v>
+      </c>
+      <c r="O98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P98" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q98" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R98" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S98" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V98" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W98" s="1">
+        <v>1</v>
+      </c>
+      <c r="X98" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA98" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC98" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD98" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF98" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL98" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM98" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP98" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR98" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX98" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA98" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB98" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC98" s="2">
+        <v>44605.90760869213</v>
+      </c>
+      <c r="BD98" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G99" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I99" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J99" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K99" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L99" s="1">
+        <v>172</v>
+      </c>
+      <c r="M99" s="1">
+        <v>27</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
+      <c r="O99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P99" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q99" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R99" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S99" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V99" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W99" s="1">
+        <v>1</v>
+      </c>
+      <c r="X99" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA99" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC99" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD99" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF99" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI99" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL99" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM99" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP99" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR99" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX99" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA99" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB99" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC99" s="2">
+        <v>44605.90793226852</v>
+      </c>
+      <c r="BD99" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G100" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I100" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J100" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K100" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L100" s="1">
+        <v>172</v>
+      </c>
+      <c r="M100" s="1">
+        <v>27</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2</v>
+      </c>
+      <c r="O100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P100" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q100" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R100" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S100" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V100" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W100" s="1">
+        <v>1</v>
+      </c>
+      <c r="X100" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA100" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC100" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD100" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF100" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI100" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL100" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM100" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP100" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR100" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX100" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA100" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB100" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC100" s="2">
+        <v>44605.91251488426</v>
+      </c>
+      <c r="BD100" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G101" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J101" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K101" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L101" s="1">
+        <v>172</v>
+      </c>
+      <c r="M101" s="1">
+        <v>27</v>
+      </c>
+      <c r="N101" s="1">
+        <v>2</v>
+      </c>
+      <c r="O101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P101" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q101" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R101" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S101" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V101" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W101" s="1">
+        <v>1</v>
+      </c>
+      <c r="X101" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF101" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM101" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP101" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX101" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA101" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB101" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC101" s="2">
+        <v>44605.91306914352</v>
+      </c>
+      <c r="BD101" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G102" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I102" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J102" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K102" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L102" s="1">
+        <v>172</v>
+      </c>
+      <c r="M102" s="1">
+        <v>27</v>
+      </c>
+      <c r="N102" s="1">
+        <v>2</v>
+      </c>
+      <c r="O102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P102" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q102" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R102" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S102" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V102" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W102" s="1">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA102" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC102" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD102" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF102" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL102" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM102" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP102" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR102" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX102" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA102" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB102" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC102" s="2">
+        <v>44605.91336268518</v>
+      </c>
+      <c r="BD102" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G103" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I103" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J103" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K103" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L103" s="1">
+        <v>172</v>
+      </c>
+      <c r="M103" s="1">
+        <v>27</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2</v>
+      </c>
+      <c r="O103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P103" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q103" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R103" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S103" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V103" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W103" s="1">
+        <v>1</v>
+      </c>
+      <c r="X103" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA103" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC103" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD103" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF103" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL103" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM103" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP103" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR103" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX103" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA103" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB103" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC103" s="2">
+        <v>44605.91369125</v>
+      </c>
+      <c r="BD103" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G104" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I104" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J104" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K104" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L104" s="1">
+        <v>172</v>
+      </c>
+      <c r="M104" s="1">
+        <v>27</v>
+      </c>
+      <c r="N104" s="1">
+        <v>2</v>
+      </c>
+      <c r="O104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P104" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q104" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R104" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S104" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V104" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W104" s="1">
+        <v>1</v>
+      </c>
+      <c r="X104" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA104" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC104" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD104" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF104" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL104" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM104" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP104" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR104" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX104" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA104" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB104" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC104" s="2">
+        <v>44605.91563256944</v>
+      </c>
+      <c r="BD104" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G105" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I105" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J105" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K105" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L105" s="1">
+        <v>172</v>
+      </c>
+      <c r="M105" s="1">
+        <v>27</v>
+      </c>
+      <c r="N105" s="1">
+        <v>2</v>
+      </c>
+      <c r="O105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P105" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q105" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R105" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S105" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V105" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W105" s="1">
+        <v>1</v>
+      </c>
+      <c r="X105" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF105" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM105" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP105" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX105" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA105" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB105" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC105" s="2">
+        <v>44605.91664030093</v>
+      </c>
+      <c r="BD105" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G106" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I106" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J106" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K106" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L106" s="1">
+        <v>172</v>
+      </c>
+      <c r="M106" s="1">
+        <v>27</v>
+      </c>
+      <c r="N106" s="1">
+        <v>2</v>
+      </c>
+      <c r="O106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P106" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q106" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R106" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S106" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V106" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W106" s="1">
+        <v>1</v>
+      </c>
+      <c r="X106" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF106" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI106" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM106" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP106" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA106" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB106" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC106" s="2">
+        <v>44605.91690267361</v>
+      </c>
+      <c r="BD106" s="2">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1722</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1572</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <v>Antonio</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <v>Buendia</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <v>Baños</v>
+      </c>
+      <c r="G107" s="1">
+        <v>13434394</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I107" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J107" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="K107" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L107" s="1">
+        <v>172</v>
+      </c>
+      <c r="M107" s="1">
+        <v>27</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2</v>
+      </c>
+      <c r="O107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="P107" s="2">
+        <v>44026</v>
+      </c>
+      <c r="Q107" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="R107" s="1" t="str">
+        <v>res 4 + vsd + part del 5</v>
+      </c>
+      <c r="S107" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="T107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="U107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V107" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Y107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA107" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC107" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD107" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF107" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AK107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AL107" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AM107" s="2">
+        <v>44461</v>
+      </c>
+      <c r="AN107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP107" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AQ107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR107" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AS107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX107" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA107" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB107" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC107" s="2">
+        <v>44605.91731041667</v>
+      </c>
+      <c r="BD107" s="2">
+        <v>43726</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD107"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC175"/>
+  <dimension ref="A1:BG184"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,6 +550,18 @@
       <c r="BC1" s="1" t="str">
         <v>timestamp</v>
       </c>
+      <c r="BD1" s="1" t="str">
+        <v>Fecha 1r CMD</v>
+      </c>
+      <c r="BE1" s="1" t="str">
+        <v>Fecha ult. CMD</v>
+      </c>
+      <c r="BF1" s="1" t="str">
+        <v>Fecha TAC-RM</v>
+      </c>
+      <c r="BG1" s="1" t="str">
+        <v>Loc. Tumor</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="str">
@@ -718,9 +730,1437 @@
         <v>44607.762194282404</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D176" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E176" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F176" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G176" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H176" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I176" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J176" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K176" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L176" s="1">
+        <v>160</v>
+      </c>
+      <c r="M176" s="1">
+        <v>26</v>
+      </c>
+      <c r="N176" s="1">
+        <v>3</v>
+      </c>
+      <c r="O176" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R176" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S176" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T176" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U176" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W176" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X176" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z176" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AC176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG176" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH176" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ176" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK176" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AM176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AN176" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ176" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AZ176" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BB176" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC176" s="2">
+        <v>44607.77371582176</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D177" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E177" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F177" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G177" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H177" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I177" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J177" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K177" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L177" s="1">
+        <v>160</v>
+      </c>
+      <c r="M177" s="1">
+        <v>26</v>
+      </c>
+      <c r="N177" s="1">
+        <v>3</v>
+      </c>
+      <c r="O177" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R177" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S177" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T177" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U177" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W177" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X177" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y177" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z177" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AC177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG177" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH177" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ177" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK177" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AM177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AN177" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ177" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AZ177" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BB177" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC177" s="2">
+        <v>44607.77580847222</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D178" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E178" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F178" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G178" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H178" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I178" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J178" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K178" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L178" s="1">
+        <v>160</v>
+      </c>
+      <c r="M178" s="1">
+        <v>26</v>
+      </c>
+      <c r="N178" s="1">
+        <v>3</v>
+      </c>
+      <c r="O178" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R178" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S178" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T178" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U178" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W178" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X178" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z178" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AC178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG178" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH178" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ178" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK178" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AM178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AN178" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ178" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AZ178" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BB178" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC178" s="2">
+        <v>44607.779070833334</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D179" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E179" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F179" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G179" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H179" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I179" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J179" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K179" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L179" s="1">
+        <v>160</v>
+      </c>
+      <c r="M179" s="1">
+        <v>26</v>
+      </c>
+      <c r="N179" s="1">
+        <v>3</v>
+      </c>
+      <c r="O179" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R179" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S179" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T179" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U179" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W179" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X179" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z179" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AC179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AF179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG179" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH179" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI179" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ179" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK179" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AM179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AN179" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ179" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AT179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AZ179" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BB179" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BC179" s="2">
+        <v>44607.77931380787</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D180" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E180" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F180" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G180" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H180" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I180" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J180" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K180" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L180" s="1">
+        <v>160</v>
+      </c>
+      <c r="M180" s="1">
+        <v>26</v>
+      </c>
+      <c r="N180" s="1">
+        <v>3</v>
+      </c>
+      <c r="O180" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R180" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S180" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T180" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U180" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W180" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X180" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y180" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z180" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG180" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ180" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK180" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN180" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ180" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ180" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC180" s="2">
+        <v>44607.78132703704</v>
+      </c>
+      <c r="BD180" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE180" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF180" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG180" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D181" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E181" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F181" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G181" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H181" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I181" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J181" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K181" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L181" s="1">
+        <v>160</v>
+      </c>
+      <c r="M181" s="1">
+        <v>26</v>
+      </c>
+      <c r="N181" s="1">
+        <v>3</v>
+      </c>
+      <c r="O181" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R181" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S181" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T181" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U181" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W181" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X181" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y181" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z181" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG181" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH181" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI181" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ181" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK181" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN181" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ181" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ181" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC181" s="2">
+        <v>44607.78302670139</v>
+      </c>
+      <c r="BD181" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE181" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF181" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG181" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D182" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E182" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F182" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G182" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H182" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I182" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J182" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K182" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L182" s="1">
+        <v>160</v>
+      </c>
+      <c r="M182" s="1">
+        <v>26</v>
+      </c>
+      <c r="N182" s="1">
+        <v>3</v>
+      </c>
+      <c r="O182" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R182" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S182" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T182" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U182" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W182" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X182" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z182" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG182" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH182" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI182" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ182" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK182" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN182" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ182" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ182" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC182" s="2">
+        <v>44607.7834309375</v>
+      </c>
+      <c r="BD182" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE182" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF182" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG182" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D183" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E183" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F183" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G183" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H183" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I183" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J183" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K183" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L183" s="1">
+        <v>160</v>
+      </c>
+      <c r="M183" s="1">
+        <v>26</v>
+      </c>
+      <c r="N183" s="1">
+        <v>3</v>
+      </c>
+      <c r="O183" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R183" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S183" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T183" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U183" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W183" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X183" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z183" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG183" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH183" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI183" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ183" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK183" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN183" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ183" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ183" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC183" s="2">
+        <v>44607.78429894676</v>
+      </c>
+      <c r="BD183" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE183" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF183" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG183" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D184" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E184" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F184" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G184" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H184" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I184" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J184" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K184" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L184" s="1">
+        <v>160</v>
+      </c>
+      <c r="M184" s="1">
+        <v>26</v>
+      </c>
+      <c r="N184" s="1">
+        <v>3</v>
+      </c>
+      <c r="O184" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q184" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R184" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S184" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T184" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U184" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W184" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X184" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y184" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z184" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG184" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH184" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI184" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ184" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK184" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN184" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ184" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ184" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC184" s="2">
+        <v>44607.784551550925</v>
+      </c>
+      <c r="BD184" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE184" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF184" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG184" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BC175"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BG184"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG184"/>
+  <dimension ref="A1:BG187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2143,7 +2143,7 @@
         <v>No</v>
       </c>
       <c r="BC184" s="2">
-        <v>44607.784551550925</v>
+        <v>44607.78455153935</v>
       </c>
       <c r="BD184" s="1" t="str">
         <v>17/05/2019</v>
@@ -2155,12 +2155,468 @@
         <v>22/03/2019</v>
       </c>
       <c r="BG184" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D185" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E185" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F185" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G185" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H185" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I185" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J185" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K185" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L185" s="1">
+        <v>160</v>
+      </c>
+      <c r="M185" s="1">
+        <v>26</v>
+      </c>
+      <c r="N185" s="1">
+        <v>3</v>
+      </c>
+      <c r="O185" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q185" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R185" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S185" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T185" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U185" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W185" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X185" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z185" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG185" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH185" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI185" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ185" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK185" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN185" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ185" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ185" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC185" s="2">
+        <v>44607.79299307871</v>
+      </c>
+      <c r="BD185" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE185" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF185" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG185" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D186" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E186" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F186" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G186" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H186" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I186" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J186" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K186" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L186" s="1">
+        <v>160</v>
+      </c>
+      <c r="M186" s="1">
+        <v>26</v>
+      </c>
+      <c r="N186" s="1">
+        <v>3</v>
+      </c>
+      <c r="O186" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R186" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S186" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T186" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U186" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W186" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X186" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y186" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z186" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG186" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH186" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI186" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ186" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK186" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN186" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ186" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ186" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC186" s="2">
+        <v>44607.79369925926</v>
+      </c>
+      <c r="BD186" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE186" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF186" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG186" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D187" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E187" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F187" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G187" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H187" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I187" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J187" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K187" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L187" s="1">
+        <v>160</v>
+      </c>
+      <c r="M187" s="1">
+        <v>26</v>
+      </c>
+      <c r="N187" s="1">
+        <v>3</v>
+      </c>
+      <c r="O187" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R187" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S187" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T187" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U187" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W187" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X187" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z187" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG187" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH187" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ187" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK187" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN187" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ187" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ187" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC187" s="2">
+        <v>44607.79661116898</v>
+      </c>
+      <c r="BD187" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE187" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF187" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG187" s="1" t="str">
         <v>III,II,VIII,V,IV</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BG184"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BG187"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG187"/>
+  <dimension ref="A1:BH198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,6 +562,9 @@
       <c r="BG1" s="1" t="str">
         <v>Loc. Tumor</v>
       </c>
+      <c r="BH1" s="1" t="str">
+        <v>ESTADA</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="str">
@@ -2614,9 +2617,1819 @@
         <v>III,II,VIII,V,IV</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D188" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E188" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F188" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G188" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H188" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I188" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J188" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K188" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L188" s="1">
+        <v>160</v>
+      </c>
+      <c r="M188" s="1">
+        <v>26</v>
+      </c>
+      <c r="N188" s="1">
+        <v>3</v>
+      </c>
+      <c r="O188" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R188" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S188" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T188" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U188" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W188" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X188" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z188" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG188" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI188" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ188" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK188" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN188" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ188" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ188" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC188" s="2">
+        <v>44607.79859302083</v>
+      </c>
+      <c r="BD188" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE188" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF188" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG188" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1543</v>
+      </c>
+      <c r="D189" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="E189" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="F189" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="G189" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="H189" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I189" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J189" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="K189" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="L189" s="1">
+        <v>160</v>
+      </c>
+      <c r="M189" s="1">
+        <v>26</v>
+      </c>
+      <c r="N189" s="1">
+        <v>3</v>
+      </c>
+      <c r="O189" s="2">
+        <v>43621</v>
+      </c>
+      <c r="P189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>43784</v>
+      </c>
+      <c r="R189" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S189" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="T189" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U189" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W189" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X189" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y189" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z189" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AC189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG189" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH189" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI189" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ189" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK189" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN189" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ189" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ189" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC189" s="2">
+        <v>44607.79905451389</v>
+      </c>
+      <c r="BD189" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="BE189" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="BF189" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="BG189" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1693</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1547</v>
+      </c>
+      <c r="D190" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E190" s="1" t="str">
+        <v>Moline</v>
+      </c>
+      <c r="F190" s="1" t="str">
+        <v>Masana</v>
+      </c>
+      <c r="G190" s="1">
+        <v>16384162</v>
+      </c>
+      <c r="H190" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I190" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J190" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="K190" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="L190" s="1">
+        <v>180</v>
+      </c>
+      <c r="M190" s="1">
+        <v>29</v>
+      </c>
+      <c r="N190" s="1">
+        <v>3</v>
+      </c>
+      <c r="P190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>43812</v>
+      </c>
+      <c r="R190" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="S190" s="1" t="str">
+        <v>segmentect 4b + tres RL, una al cavocava dret</v>
+      </c>
+      <c r="T190" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W190" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X190" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y190" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z190" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF190" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG190" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AH190" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI190" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ190" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AK190" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL190" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM190" s="1" t="str">
+        <v>VSD</v>
+      </c>
+      <c r="AN190" s="2">
+        <v>43984</v>
+      </c>
+      <c r="AO190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ190" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ190" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA190" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB190" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC190" s="2">
+        <v>44607.81151620371</v>
+      </c>
+      <c r="BD190" s="1" t="str">
+        <v>14/06/2019</v>
+      </c>
+      <c r="BE190" s="1" t="str">
+        <v>24/07/2020</v>
+      </c>
+      <c r="BF190" s="1" t="str">
+        <v>23/05/2019</v>
+      </c>
+      <c r="BG190" s="1" t="str">
+        <v>IV,VII,VI,VIII</v>
+      </c>
+      <c r="BH190" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1693</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1547</v>
+      </c>
+      <c r="D191" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E191" s="1" t="str">
+        <v>Moline</v>
+      </c>
+      <c r="F191" s="1" t="str">
+        <v>Masana</v>
+      </c>
+      <c r="G191" s="1">
+        <v>16384162</v>
+      </c>
+      <c r="H191" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I191" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J191" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="K191" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="L191" s="1">
+        <v>180</v>
+      </c>
+      <c r="M191" s="1">
+        <v>29</v>
+      </c>
+      <c r="N191" s="1">
+        <v>3</v>
+      </c>
+      <c r="P191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>43812</v>
+      </c>
+      <c r="R191" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="S191" s="1" t="str">
+        <v>segmentect 4b + tres RL, una al cavocava dret</v>
+      </c>
+      <c r="T191" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W191" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X191" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y191" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z191" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF191" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG191" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AH191" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI191" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ191" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AK191" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL191" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM191" s="1" t="str">
+        <v>VSD</v>
+      </c>
+      <c r="AN191" s="2">
+        <v>43984</v>
+      </c>
+      <c r="AO191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ191" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ191" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA191" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB191" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC191" s="2">
+        <v>44607.818731527776</v>
+      </c>
+      <c r="BD191" s="1" t="str">
+        <v>14/06/2019</v>
+      </c>
+      <c r="BE191" s="1" t="str">
+        <v>24/07/2020</v>
+      </c>
+      <c r="BF191" s="1" t="str">
+        <v>23/05/2019</v>
+      </c>
+      <c r="BG191" s="1" t="str">
+        <v>IV,VII,VI,VIII</v>
+      </c>
+      <c r="BH191" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1668</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1528</v>
+      </c>
+      <c r="D192" s="1" t="str">
+        <v>Juan P</v>
+      </c>
+      <c r="E192" s="1" t="str">
+        <v>Montes</v>
+      </c>
+      <c r="F192" s="1" t="str">
+        <v>Alcañiz</v>
+      </c>
+      <c r="G192" s="1">
+        <v>18493694</v>
+      </c>
+      <c r="H192" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I192" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J192" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="K192" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L192" s="1">
+        <v>172</v>
+      </c>
+      <c r="M192" s="1">
+        <v>27</v>
+      </c>
+      <c r="N192" s="1">
+        <v>3</v>
+      </c>
+      <c r="O192" s="2">
+        <v>43416</v>
+      </c>
+      <c r="P192" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>43677</v>
+      </c>
+      <c r="R192" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S192" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="T192" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W192" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X192" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Z192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF192" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG192" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH192" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI192" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ192" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AK192" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN192" s="2">
+        <v>44462</v>
+      </c>
+      <c r="AO192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ192" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ192" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA192" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB192" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC192" s="2">
+        <v>44607.818903506944</v>
+      </c>
+      <c r="BD192" s="1" t="str">
+        <v>13/07/2018</v>
+      </c>
+      <c r="BE192" s="1" t="str">
+        <v>19/03/2021</v>
+      </c>
+      <c r="BF192" s="1" t="str">
+        <v>01/06/2018</v>
+      </c>
+      <c r="BG192" s="1" t="str">
+        <v>VIII, VI</v>
+      </c>
+      <c r="BH192" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1639</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1502</v>
+      </c>
+      <c r="D193" s="1" t="str">
+        <v>JOSE</v>
+      </c>
+      <c r="E193" s="1" t="str">
+        <v>MORALES</v>
+      </c>
+      <c r="F193" s="1" t="str">
+        <v>PEREZ</v>
+      </c>
+      <c r="G193" s="1">
+        <v>13804187</v>
+      </c>
+      <c r="H193" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I193" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J193" s="1" t="str">
+        <v>58</v>
+      </c>
+      <c r="K193" s="1" t="str">
+        <v>77</v>
+      </c>
+      <c r="L193" s="1">
+        <v>166</v>
+      </c>
+      <c r="M193" s="1">
+        <v>28</v>
+      </c>
+      <c r="N193" s="1">
+        <v>2</v>
+      </c>
+      <c r="O193" s="2">
+        <v>42827</v>
+      </c>
+      <c r="P193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>43539</v>
+      </c>
+      <c r="R193" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S193" s="1" t="str">
+        <v>hepat esquerra i rl 7</v>
+      </c>
+      <c r="T193" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="U193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W193" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X193" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y193" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z193" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG193" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH193" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI193" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ193" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK193" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AL193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN193" s="2">
+        <v>44301</v>
+      </c>
+      <c r="AO193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ193" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ193" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA193" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB193" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC193" s="2">
+        <v>44607.819074583334</v>
+      </c>
+      <c r="BD193" s="1" t="str">
+        <v>14/12/2018</v>
+      </c>
+      <c r="BE193" s="1" t="str">
+        <v>08/03/2021</v>
+      </c>
+      <c r="BF193" s="1" t="str">
+        <v>03/11/2018</v>
+      </c>
+      <c r="BG193" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="BH193" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1686</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1542</v>
+      </c>
+      <c r="D194" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="E194" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="F194" s="1" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G194" s="1">
+        <v>16369704</v>
+      </c>
+      <c r="H194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I194" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J194" s="1" t="str">
+        <v>54</v>
+      </c>
+      <c r="K194" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="L194" s="1">
+        <v>174</v>
+      </c>
+      <c r="M194" s="1">
+        <v>27</v>
+      </c>
+      <c r="N194" s="1">
+        <v>3</v>
+      </c>
+      <c r="O194" s="2">
+        <v>43783</v>
+      </c>
+      <c r="P194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>43783</v>
+      </c>
+      <c r="R194" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="S194" s="1" t="str">
+        <v>3 rl esquerres i dues RF esquerres</v>
+      </c>
+      <c r="T194" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U194" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W194" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X194" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y194" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AD194" s="1" t="str">
+        <v>Hemicolectomia dreta</v>
+      </c>
+      <c r="AE194" s="1" t="str">
+        <v>colectomia dreta</v>
+      </c>
+      <c r="AF194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG194" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH194" s="1">
+        <v>37</v>
+      </c>
+      <c r="AI194" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ194" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK194" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN194" s="2">
+        <v>44411</v>
+      </c>
+      <c r="AO194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ194" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA194" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB194" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC194" s="2">
+        <v>44607.81923439815</v>
+      </c>
+      <c r="BD194" s="1" t="str">
+        <v>12/07/2019</v>
+      </c>
+      <c r="BE194" s="1" t="str">
+        <v>12/11/2021</v>
+      </c>
+      <c r="BF194" s="1" t="str">
+        <v>12/06/2019</v>
+      </c>
+      <c r="BG194" s="1" t="str">
+        <v>VIII, VII</v>
+      </c>
+      <c r="BH194" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1693</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1547</v>
+      </c>
+      <c r="D195" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="E195" s="1" t="str">
+        <v>Moline</v>
+      </c>
+      <c r="F195" s="1" t="str">
+        <v>Masana</v>
+      </c>
+      <c r="G195" s="1">
+        <v>16384162</v>
+      </c>
+      <c r="H195" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I195" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J195" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="K195" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="L195" s="1">
+        <v>180</v>
+      </c>
+      <c r="M195" s="1">
+        <v>29</v>
+      </c>
+      <c r="N195" s="1">
+        <v>3</v>
+      </c>
+      <c r="P195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>43812</v>
+      </c>
+      <c r="R195" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="S195" s="1" t="str">
+        <v>segmentect 4b + tres RL, una al cavocava dret</v>
+      </c>
+      <c r="T195" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W195" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X195" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y195" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z195" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF195" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG195" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AH195" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI195" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ195" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AK195" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL195" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM195" s="1" t="str">
+        <v>VSD</v>
+      </c>
+      <c r="AN195" s="2">
+        <v>43984</v>
+      </c>
+      <c r="AO195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ195" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ195" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA195" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB195" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC195" s="2">
+        <v>44607.82168594907</v>
+      </c>
+      <c r="BD195" s="1" t="str">
+        <v>14/06/2019</v>
+      </c>
+      <c r="BE195" s="1" t="str">
+        <v>24/07/2020</v>
+      </c>
+      <c r="BF195" s="1" t="str">
+        <v>23/05/2019</v>
+      </c>
+      <c r="BG195" s="1" t="str">
+        <v>IV,VII,VI,VIII</v>
+      </c>
+      <c r="BH195" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1668</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1528</v>
+      </c>
+      <c r="D196" s="1" t="str">
+        <v>Juan P</v>
+      </c>
+      <c r="E196" s="1" t="str">
+        <v>Montes</v>
+      </c>
+      <c r="F196" s="1" t="str">
+        <v>Alcañiz</v>
+      </c>
+      <c r="G196" s="1">
+        <v>18493694</v>
+      </c>
+      <c r="H196" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I196" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J196" s="1" t="str">
+        <v>53</v>
+      </c>
+      <c r="K196" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="L196" s="1">
+        <v>172</v>
+      </c>
+      <c r="M196" s="1">
+        <v>27</v>
+      </c>
+      <c r="N196" s="1">
+        <v>3</v>
+      </c>
+      <c r="O196" s="2">
+        <v>43416</v>
+      </c>
+      <c r="P196" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>43677</v>
+      </c>
+      <c r="R196" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S196" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="T196" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W196" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X196" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y196" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Z196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF196" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG196" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH196" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI196" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ196" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AK196" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN196" s="2">
+        <v>44462</v>
+      </c>
+      <c r="AO196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ196" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ196" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA196" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB196" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC196" s="2">
+        <v>44607.82184486111</v>
+      </c>
+      <c r="BD196" s="1" t="str">
+        <v>13/07/2018</v>
+      </c>
+      <c r="BE196" s="1" t="str">
+        <v>19/03/2021</v>
+      </c>
+      <c r="BF196" s="1" t="str">
+        <v>01/06/2018</v>
+      </c>
+      <c r="BG196" s="1" t="str">
+        <v>VIII, VI</v>
+      </c>
+      <c r="BH196" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1639</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1502</v>
+      </c>
+      <c r="D197" s="1" t="str">
+        <v>JOSE</v>
+      </c>
+      <c r="E197" s="1" t="str">
+        <v>MORALES</v>
+      </c>
+      <c r="F197" s="1" t="str">
+        <v>PEREZ</v>
+      </c>
+      <c r="G197" s="1">
+        <v>13804187</v>
+      </c>
+      <c r="H197" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I197" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J197" s="1" t="str">
+        <v>58</v>
+      </c>
+      <c r="K197" s="1" t="str">
+        <v>77</v>
+      </c>
+      <c r="L197" s="1">
+        <v>166</v>
+      </c>
+      <c r="M197" s="1">
+        <v>28</v>
+      </c>
+      <c r="N197" s="1">
+        <v>2</v>
+      </c>
+      <c r="O197" s="2">
+        <v>42827</v>
+      </c>
+      <c r="P197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q197" s="2">
+        <v>43539</v>
+      </c>
+      <c r="R197" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="S197" s="1" t="str">
+        <v>hepat esquerra i rl 7</v>
+      </c>
+      <c r="T197" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="U197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="V197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W197" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X197" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y197" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z197" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG197" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH197" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI197" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ197" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK197" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AL197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN197" s="2">
+        <v>44301</v>
+      </c>
+      <c r="AO197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ197" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ197" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA197" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB197" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC197" s="2">
+        <v>44607.82200344907</v>
+      </c>
+      <c r="BD197" s="1" t="str">
+        <v>14/12/2018</v>
+      </c>
+      <c r="BE197" s="1" t="str">
+        <v>08/03/2021</v>
+      </c>
+      <c r="BF197" s="1" t="str">
+        <v>03/11/2018</v>
+      </c>
+      <c r="BG197" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="BH197" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1686</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1542</v>
+      </c>
+      <c r="D198" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="E198" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="F198" s="1" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G198" s="1">
+        <v>16369704</v>
+      </c>
+      <c r="H198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="I198" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="J198" s="1" t="str">
+        <v>54</v>
+      </c>
+      <c r="K198" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="L198" s="1">
+        <v>174</v>
+      </c>
+      <c r="M198" s="1">
+        <v>27</v>
+      </c>
+      <c r="N198" s="1">
+        <v>3</v>
+      </c>
+      <c r="O198" s="2">
+        <v>43783</v>
+      </c>
+      <c r="P198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>43783</v>
+      </c>
+      <c r="R198" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="S198" s="1" t="str">
+        <v>3 rl esquerres i dues RF esquerres</v>
+      </c>
+      <c r="T198" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="U198" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="V198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W198" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="X198" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y198" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AA198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AB198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AC198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AD198" s="1" t="str">
+        <v>Hemicolectomia dreta</v>
+      </c>
+      <c r="AE198" s="1" t="str">
+        <v>colectomia dreta</v>
+      </c>
+      <c r="AF198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG198" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH198" s="1">
+        <v>37</v>
+      </c>
+      <c r="AI198" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ198" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK198" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN198" s="2">
+        <v>44411</v>
+      </c>
+      <c r="AO198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ198" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA198" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB198" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC198" s="2">
+        <v>44607.82215930556</v>
+      </c>
+      <c r="BD198" s="1" t="str">
+        <v>12/07/2019</v>
+      </c>
+      <c r="BE198" s="1" t="str">
+        <v>12/11/2021</v>
+      </c>
+      <c r="BF198" s="1" t="str">
+        <v>12/06/2019</v>
+      </c>
+      <c r="BG198" s="1" t="str">
+        <v>VIII, VII</v>
+      </c>
+      <c r="BH198" s="1">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BG187"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BH198"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF16"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +559,12 @@
       <c r="BF1" s="1" t="str">
         <v>TIPUS CIRCOLONSIM</v>
       </c>
+      <c r="BG1" s="1" t="str">
+        <v>Causa REIQ</v>
+      </c>
+      <c r="BH1" s="1" t="str">
+        <v>GRAU FB</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -3059,18 +3065,2505 @@
         <v>26</v>
       </c>
       <c r="BB16" s="2">
-        <v>44607.92932018518</v>
+        <v>44607.92932016204</v>
       </c>
       <c r="BC16" s="2">
         <v>43416</v>
       </c>
       <c r="BD16" s="1" t="str">
         <v>No</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1693</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>14/06/2019</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>24/07/2020</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>23/05/2019</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <v>IV,VII,VI,VIII</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1547</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <v>Josep</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <v>Moline</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <v>Masana</v>
+      </c>
+      <c r="K17" s="1">
+        <v>16384162</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>29</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T17" s="2">
+        <v>43812</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <v>segmentect 4b + tres RL, una al cavocava dret</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AD17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG17" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM17" s="1" t="str">
+        <v>VSD</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>43984</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ17" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>10</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>44608.35907756945</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1687</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1543</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="K18" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="P18" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>26</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T18" s="2">
+        <v>43784</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG18" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AO18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ18" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>44608.36407142361</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P19" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>25</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T19" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG19" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM19" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ19" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>44608.36987771991</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG19" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P20" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>25</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T20" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG20" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM20" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ20" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>44608.37466033565</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG20" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P21" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>25</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T21" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U21" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG21" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM21" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ21" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>44608.37611074074</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG21" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P22" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>25</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T22" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG22" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM22" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ22" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>44608.37847253472</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG22" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P23" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>25</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3</v>
+      </c>
+      <c r="S23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T23" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z23" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG23" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM23" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ23" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>44608.380268472225</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG23" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P24" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>25</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T24" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z24" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG24" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM24" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ24" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>44608.3833528125</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG24" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P25" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>25</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T25" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG25" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM25" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ25" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>44608.38351642361</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG25" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P26" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>25</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3</v>
+      </c>
+      <c r="S26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T26" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U26" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z26" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG26" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM26" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ26" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>44608.38608322917</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG26" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P27" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>25</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T27" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U27" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z27" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG27" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM27" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ27" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>44608.38652545139</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG27" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P28" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>25</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T28" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U28" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W28" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X28" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z28" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG28" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM28" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ28" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>44608.38744711805</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG28" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P29" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>25</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T29" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U29" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W29" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X29" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z29" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG29" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM29" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ29" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>44608.38789902778</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG29" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P30" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>25</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T30" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U30" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W30" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X30" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z30" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG30" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM30" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ30" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>44608.38863931713</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG30" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P31" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>25</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T31" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U31" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W31" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X31" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z31" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG31" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM31" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ31" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>44608.40377138889</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG31" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH31" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BF16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BH31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH31"/>
+  <dimension ref="A1:BI37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +565,9 @@
       <c r="BH1" s="1" t="str">
         <v>GRAU FB</v>
       </c>
+      <c r="BI1" s="1" t="str">
+        <v>Data EXITUS</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -5561,9 +5564,912 @@
         <v>2</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1686</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <v>12/07/2019</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>12/11/2021</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v>12/06/2019</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <v>VIII,VII</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1542</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="K32" s="1">
+        <v>16369704</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <v>54</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="P32" s="1">
+        <v>174</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>27</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T32" s="2">
+        <v>43783</v>
+      </c>
+      <c r="U32" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <v>3 rl esquerres i dues RF esquerres</v>
+      </c>
+      <c r="W32" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X32" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="Y32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z32" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AD32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG32" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>37</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>44411</v>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ32" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>19</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>44608.42213204861</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>43783</v>
+      </c>
+      <c r="BD32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BE32" s="1" t="str">
+        <v>Hemicolectomia dreta</v>
+      </c>
+      <c r="BF32" s="1" t="str">
+        <v>colectomia dreta</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P33" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>27</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T33" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U33" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W33" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z33" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG33" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ33" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>44608.43338515046</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI33" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P34" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>27</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T34" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U34" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W34" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z34" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG34" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ34" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB34" s="2">
+        <v>44608.433932708336</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI34" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P35" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>27</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T35" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U35" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W35" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG35" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ35" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB35" s="2">
+        <v>44608.43871850694</v>
+      </c>
+      <c r="BC35" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI35" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P36" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>27</v>
+      </c>
+      <c r="R36" s="1">
+        <v>3</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T36" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U36" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W36" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z36" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG36" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ36" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB36" s="2">
+        <v>44608.47522649306</v>
+      </c>
+      <c r="BC36" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P37" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>27</v>
+      </c>
+      <c r="R37" s="1">
+        <v>3</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T37" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U37" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V37" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W37" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG37" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ37" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>44608.480993530095</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>43708</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BH31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BI37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI37"/>
+  <dimension ref="A1:BJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,9 @@
       <c r="BI1" s="1" t="str">
         <v>Data EXITUS</v>
       </c>
+      <c r="BJ1" s="1" t="str">
+        <v>BRISBANE</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -6467,9 +6470,2857 @@
         <v>43708</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P38" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>27</v>
+      </c>
+      <c r="R38" s="1">
+        <v>3</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T38" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U38" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W38" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z38" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG38" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ38" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB38" s="2">
+        <v>44610.43954850695</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>43708</v>
+      </c>
+      <c r="BJ38" s="1" t="str">
+        <v>no reglada</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P39" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>27</v>
+      </c>
+      <c r="R39" s="1">
+        <v>3</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T39" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U39" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V39" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W39" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z39" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG39" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ39" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB39" s="2">
+        <v>44610.441321122686</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI39" s="2">
+        <v>43708</v>
+      </c>
+      <c r="BJ39" s="1" t="str">
+        <v>no reglada</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P40" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>28</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T40" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U40" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V40" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W40" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z40" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG40" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM40" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ40" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ40" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB40" s="2">
+        <v>44610.441996064816</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD40" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ40" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K41" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P41" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>28</v>
+      </c>
+      <c r="R41" s="1">
+        <v>3</v>
+      </c>
+      <c r="S41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T41" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U41" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V41" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W41" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z41" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG41" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM41" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ41" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ41" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB41" s="2">
+        <v>44610.442856932874</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD41" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ41" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P42" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>28</v>
+      </c>
+      <c r="R42" s="1">
+        <v>3</v>
+      </c>
+      <c r="S42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T42" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U42" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V42" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W42" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z42" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG42" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM42" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ42" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ42" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB42" s="2">
+        <v>44610.443434953704</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD42" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ42" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K43" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P43" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>28</v>
+      </c>
+      <c r="R43" s="1">
+        <v>3</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T43" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U43" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V43" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W43" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z43" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG43" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM43" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ43" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ43" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB43" s="2">
+        <v>44610.44485597222</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD43" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ43" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K44" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P44" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>28</v>
+      </c>
+      <c r="R44" s="1">
+        <v>3</v>
+      </c>
+      <c r="S44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T44" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U44" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V44" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W44" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z44" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG44" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM44" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ44" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ44" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB44" s="2">
+        <v>44610.4467818287</v>
+      </c>
+      <c r="BC44" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD44" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ44" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J45" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K45" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P45" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>28</v>
+      </c>
+      <c r="R45" s="1">
+        <v>3</v>
+      </c>
+      <c r="S45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T45" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U45" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V45" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W45" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z45" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG45" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM45" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ45" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ45" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB45" s="2">
+        <v>44610.44750314815</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD45" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ45" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J46" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K46" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P46" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>28</v>
+      </c>
+      <c r="R46" s="1">
+        <v>3</v>
+      </c>
+      <c r="S46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T46" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U46" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V46" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W46" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z46" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG46" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM46" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ46" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ46" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA46" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB46" s="2">
+        <v>44610.44792484953</v>
+      </c>
+      <c r="BC46" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD46" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ46" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J47" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K47" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N47" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P47" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>28</v>
+      </c>
+      <c r="R47" s="1">
+        <v>3</v>
+      </c>
+      <c r="S47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T47" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U47" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V47" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W47" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z47" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG47" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM47" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ47" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ47" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA47" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB47" s="2">
+        <v>44610.448275497685</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD47" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ47" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K48" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N48" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O48" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P48" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>28</v>
+      </c>
+      <c r="R48" s="1">
+        <v>3</v>
+      </c>
+      <c r="S48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T48" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U48" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V48" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W48" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z48" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG48" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM48" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ48" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ48" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA48" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB48" s="2">
+        <v>44610.448518495374</v>
+      </c>
+      <c r="BC48" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD48" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ48" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K49" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N49" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P49" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>28</v>
+      </c>
+      <c r="R49" s="1">
+        <v>3</v>
+      </c>
+      <c r="S49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T49" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U49" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W49" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z49" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG49" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM49" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ49" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ49" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA49" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB49" s="2">
+        <v>44610.462327106485</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD49" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ49" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K50" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N50" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O50" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P50" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>28</v>
+      </c>
+      <c r="R50" s="1">
+        <v>3</v>
+      </c>
+      <c r="S50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T50" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U50" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V50" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W50" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z50" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG50" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM50" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ50" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ50" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA50" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB50" s="2">
+        <v>44610.4632481713</v>
+      </c>
+      <c r="BC50" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD50" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ50" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J51" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K51" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N51" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O51" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P51" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>28</v>
+      </c>
+      <c r="R51" s="1">
+        <v>3</v>
+      </c>
+      <c r="S51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T51" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U51" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V51" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W51" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z51" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG51" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM51" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ51" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ51" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA51" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB51" s="2">
+        <v>44610.46345649305</v>
+      </c>
+      <c r="BC51" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD51" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ51" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J52" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K52" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N52" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O52" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P52" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>28</v>
+      </c>
+      <c r="R52" s="1">
+        <v>3</v>
+      </c>
+      <c r="S52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T52" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U52" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V52" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W52" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z52" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG52" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM52" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ52" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ52" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA52" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB52" s="2">
+        <v>44610.46412315972</v>
+      </c>
+      <c r="BC52" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD52" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ52" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K53" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N53" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O53" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P53" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>28</v>
+      </c>
+      <c r="R53" s="1">
+        <v>3</v>
+      </c>
+      <c r="S53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T53" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U53" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V53" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W53" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z53" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG53" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM53" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ53" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ53" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA53" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB53" s="2">
+        <v>44610.46474826389</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD53" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ53" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1689</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <v>03/05/2019</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <v>20/04/2021</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <v>13/03/2019</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <v>VII, VIII</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1545</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <v>Ana</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <v>Moral</v>
+      </c>
+      <c r="J54" s="1" t="str">
+        <v>Rueda</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12816340</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="N54" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="O54" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P54" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>28</v>
+      </c>
+      <c r="R54" s="1">
+        <v>3</v>
+      </c>
+      <c r="S54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T54" s="2">
+        <v>43790</v>
+      </c>
+      <c r="U54" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V54" s="1" t="str">
+        <v>SEGMENTECTOMIA 4 , rl 6/7 , rl 3  (2)</v>
+      </c>
+      <c r="W54" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z54" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG54" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM54" s="1" t="str">
+        <v>reseccio. (Ap sense tm)</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>44515</v>
+      </c>
+      <c r="AO54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ54" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ54" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA54" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB54" s="2">
+        <v>44610.472465416664</v>
+      </c>
+      <c r="BC54" s="2">
+        <v>43326</v>
+      </c>
+      <c r="BD54" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ54" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BI37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BJ54"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ54"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -571,6 +571,9 @@
       <c r="BJ1" s="1" t="str">
         <v>BRISBANE</v>
       </c>
+      <c r="BK1" s="1" t="str">
+        <v>Grau IH</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -9318,9 +9321,1500 @@
         <v>Segmentectomia1a8</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1641</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <v>04/03/2019</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <v>20/05/2019</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <v>11/01/2019</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1504</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <v>dictino</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <v>FERNANDEZ</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <v>ALVAREZ</v>
+      </c>
+      <c r="K55" s="1">
+        <v>13067884</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N55" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="O55" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P55" s="1">
+        <v>169</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>22</v>
+      </c>
+      <c r="R55" s="1">
+        <v>2</v>
+      </c>
+      <c r="S55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T55" s="2">
+        <v>43546</v>
+      </c>
+      <c r="U55" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V55" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="W55" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z55" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG55" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM55" s="1" t="str">
+        <v>Aquamantis</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>44376</v>
+      </c>
+      <c r="AO55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ55" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="2">
+        <v>44610.47735954861</v>
+      </c>
+      <c r="BC55" s="2">
+        <v>43594</v>
+      </c>
+      <c r="BD55" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ55" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1641</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <v>04/03/2019</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <v>20/05/2019</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <v>11/01/2019</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1504</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <v>dictino</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <v>FERNANDEZ</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <v>ALVAREZ</v>
+      </c>
+      <c r="K56" s="1">
+        <v>13067884</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M56" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N56" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="O56" s="1" t="str">
+        <v>62</v>
+      </c>
+      <c r="P56" s="1">
+        <v>169</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>22</v>
+      </c>
+      <c r="R56" s="1">
+        <v>2</v>
+      </c>
+      <c r="S56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T56" s="2">
+        <v>43546</v>
+      </c>
+      <c r="U56" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V56" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="W56" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z56" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG56" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>21</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM56" s="1" t="str">
+        <v>Aquamantis</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>44376</v>
+      </c>
+      <c r="AO56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ56" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="2">
+        <v>44610.47829358796</v>
+      </c>
+      <c r="BC56" s="2">
+        <v>43594</v>
+      </c>
+      <c r="BD56" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ56" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1669</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <v>05/02/2021</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <v xml:space="preserve">05/02/2021 </v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <v>29/01/2019</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <v>II,IV,VII,VI,VIII</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1529</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <v>Salvador</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <v>Monte</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <v>Peiro</v>
+      </c>
+      <c r="K57" s="1">
+        <v>13005406</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M57" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N57" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="O57" s="1">
+        <v>86</v>
+      </c>
+      <c r="P57" s="1">
+        <v>178</v>
+      </c>
+      <c r="R57" s="1">
+        <v>2</v>
+      </c>
+      <c r="T57" s="2">
+        <v>43679</v>
+      </c>
+      <c r="U57" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V57" s="1" t="str">
+        <v>bisegm 2/3 i 4 RL r0 una d'elles</v>
+      </c>
+      <c r="W57" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z57" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AC57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AD57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM57" s="1" t="str">
+        <v>aquamantis</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>44525</v>
+      </c>
+      <c r="AO57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ57" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AX57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AY57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ57" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB57" s="2">
+        <v>44610.478461516206</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>43525</v>
+      </c>
+      <c r="BD57" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ57" s="1" t="str">
+        <v>no reglada</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K58" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O58" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P58" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>25</v>
+      </c>
+      <c r="R58" s="1">
+        <v>3</v>
+      </c>
+      <c r="S58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T58" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U58" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V58" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W58" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X58" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z58" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG58" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM58" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ58" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV58" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA58" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB58" s="2">
+        <v>44610.47960412037</v>
+      </c>
+      <c r="BC58" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD58" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG58" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH58" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ58" s="1" t="str">
+        <v>hepatectomiaDreta</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1632</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <v>05/04/2018</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <v>09/06/2021</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <v>01/01/2018</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <v>IV</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1497</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <v>JAUME</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <v>GUAL</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <v>BOSCH</v>
+      </c>
+      <c r="K59" s="1">
+        <v>13297134</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N59" s="1" t="str">
+        <v>47</v>
+      </c>
+      <c r="O59" s="1" t="str">
+        <v>87</v>
+      </c>
+      <c r="P59" s="1">
+        <v>170</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>30</v>
+      </c>
+      <c r="R59" s="1">
+        <v>2</v>
+      </c>
+      <c r="S59" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="T59" s="1" t="str">
+        <v>02/15/2019</v>
+      </c>
+      <c r="U59" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V59" s="1" t="str">
+        <v>Hepatectomia derecha + reseccion limitada segmento IV</v>
+      </c>
+      <c r="W59" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z59" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AD59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG59" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AL59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AM59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AN59" s="2">
+        <v>44522</v>
+      </c>
+      <c r="AO59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ59" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AY59" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ59" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA59" s="1">
+        <v>10</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>44610.479952974536</v>
+      </c>
+      <c r="BC59" s="2">
+        <v>43344</v>
+      </c>
+      <c r="BD59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BE59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BF59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="BG59" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BJ59" s="1" t="str">
+        <v>hepatectomiaDreta,Segmentectomia1a8</v>
+      </c>
+      <c r="BK59" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J60" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M60" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N60" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O60" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P60" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>27</v>
+      </c>
+      <c r="R60" s="1">
+        <v>3</v>
+      </c>
+      <c r="S60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T60" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U60" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V60" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W60" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z60" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF60" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG60" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ60" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS60" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW60" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX60" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA60" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB60" s="2">
+        <v>44610.480130682874</v>
+      </c>
+      <c r="BC60" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI60" s="2">
+        <v>43708</v>
+      </c>
+      <c r="BJ60" s="1" t="str">
+        <v>no reglada</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J61" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O61" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P61" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>25</v>
+      </c>
+      <c r="R61" s="1">
+        <v>3</v>
+      </c>
+      <c r="S61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T61" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U61" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V61" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W61" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X61" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z61" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG61" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM61" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ61" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV61" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA61" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB61" s="2">
+        <v>44610.48034048611</v>
+      </c>
+      <c r="BC61" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD61" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG61" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH61" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ61" s="1" t="str">
+        <v>hepatectomiaDreta</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J62" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K62" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O62" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P62" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>25</v>
+      </c>
+      <c r="R62" s="1">
+        <v>3</v>
+      </c>
+      <c r="S62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T62" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U62" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V62" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W62" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X62" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z62" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG62" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM62" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ62" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV62" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA62" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB62" s="2">
+        <v>44610.49999402778</v>
+      </c>
+      <c r="BC62" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD62" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG62" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH62" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ62" s="1" t="str">
+        <v>hepatectomiaDreta</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J63" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K63" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O63" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P63" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>25</v>
+      </c>
+      <c r="R63" s="1">
+        <v>3</v>
+      </c>
+      <c r="S63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T63" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U63" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V63" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W63" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X63" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z63" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG63" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM63" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ63" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV63" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA63" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB63" s="2">
+        <v>44610.504006944444</v>
+      </c>
+      <c r="BC63" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD63" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG63" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH63" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ63" s="1" t="str">
+        <v>hepatectomiaDreta</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BJ54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BK63"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10812,9 +10812,328 @@
         <v>hepatectomiaDreta</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="str">
+        <v>Hepatectomia dreta</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1695</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <v>09/07/2018</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <v>11/02/2019</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <v>25/06/2018</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <v>VII</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <v>Jordi</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <v>Morillas2</v>
+      </c>
+      <c r="J64" s="1" t="str">
+        <v>Esteban2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>13296015</v>
+      </c>
+      <c r="L64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="O64" s="1" t="str">
+        <v>79</v>
+      </c>
+      <c r="P64" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>25</v>
+      </c>
+      <c r="R64" s="1">
+        <v>3</v>
+      </c>
+      <c r="S64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T64" s="2">
+        <v>43858</v>
+      </c>
+      <c r="U64" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="V64" s="1" t="str">
+        <v>hepatectomia dreta</v>
+      </c>
+      <c r="W64" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X64" s="1" t="str">
+        <v>Si, com a primer temps quirúrgic</v>
+      </c>
+      <c r="Y64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z64" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AD64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG64" s="1" t="str">
+        <v>IIIb</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>61</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AM64" s="1" t="str">
+        <v>ampliacio quirurgica</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>43983</v>
+      </c>
+      <c r="AO64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ64" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AR64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AS64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV64" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AW64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA64" s="1">
+        <v>55</v>
+      </c>
+      <c r="BB64" s="2">
+        <v>44610.50920883102</v>
+      </c>
+      <c r="BC64" s="2">
+        <v>43446</v>
+      </c>
+      <c r="BD64" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BG64" s="1" t="str">
+        <v>oclusió, peritonitis fecaoidea</v>
+      </c>
+      <c r="BH64" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ64" s="1" t="str">
+        <v>hepatectomiaDreta</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="str">
+        <v>Resecció/ns limitada/es</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1671</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <v>05/04/2019</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <v>28/12/2016</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <v>VIII</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <v>Josep M2</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <v>Balleste2</v>
+      </c>
+      <c r="J65" s="1" t="str">
+        <v>Blasco2</v>
+      </c>
+      <c r="K65" s="1">
+        <v>10207678</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="N65" s="1" t="str">
+        <v>75</v>
+      </c>
+      <c r="O65" s="1" t="str">
+        <v>73</v>
+      </c>
+      <c r="P65" s="1">
+        <v>166</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>27</v>
+      </c>
+      <c r="R65" s="1">
+        <v>3</v>
+      </c>
+      <c r="S65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="T65" s="2">
+        <v>43686</v>
+      </c>
+      <c r="U65" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="V65" s="1" t="str">
+        <v>dues RL segment8</v>
+      </c>
+      <c r="W65" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="X65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Y65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z65" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF65" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AG65" s="1" t="str">
+        <v>V</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AO65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AP65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ65" s="1" t="str">
+        <v>Mort (lliure malaltia)</v>
+      </c>
+      <c r="AR65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AS65" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW65" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AX65" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA65" s="1">
+        <v>23</v>
+      </c>
+      <c r="BB65" s="2">
+        <v>44610.53886424768</v>
+      </c>
+      <c r="BC65" s="2">
+        <v>42824</v>
+      </c>
+      <c r="BI65" s="2">
+        <v>43708</v>
+      </c>
+      <c r="BJ65" s="1" t="str">
+        <v>no reglada</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BK63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BK65"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,354 +379,2252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="str">
         <v>TECNICA</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="R1" s="1" t="str">
         <v>TecnicaQuir_descripció</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="S1" s="1" t="str">
         <v>BRISBANE</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="T1" s="1" t="str">
         <v>NUM_RESEC</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="U1" s="1" t="str">
         <v>Fecha 1r CMD</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="V1" s="1" t="str">
         <v>Fecha ult. CMD</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="W1" s="1" t="str">
         <v>Fecha TAC-RM</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="X1" s="1" t="str">
         <v>Loc. Tumor</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="Y1" s="1" t="str">
         <v>NUM_PAC</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="Z1" s="1" t="str">
         <v>NOMBRE</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="AA1" s="1" t="str">
         <v>APELLIDO1</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="AB1" s="1" t="str">
         <v>APELLIDO2</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="AC1" s="1" t="str">
         <v>SAP</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="AD1" s="1" t="str">
         <v>DATAHEP</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="AE1" s="1" t="str">
         <v>COMITE</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="AF1" s="1" t="str">
         <v>SEXO</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="AG1" s="1" t="str">
         <v>EDAT</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="AH1" s="1" t="str">
         <v>PES</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="AI1" s="1" t="str">
         <v>Talla</v>
       </c>
-      <c r="T1" s="1" t="str">
+      <c r="AJ1" s="1" t="str">
         <v>IMC</v>
       </c>
-      <c r="U1" s="1" t="str">
+      <c r="AK1" s="1" t="str">
         <v>ASA</v>
       </c>
-      <c r="V1" s="1" t="str">
+      <c r="AL1" s="1" t="str">
         <v>DATAIQCOLON</v>
       </c>
-      <c r="W1" s="1" t="str">
+      <c r="AM1" s="1" t="str">
         <v>EPPO</v>
       </c>
-      <c r="X1" s="1" t="str">
+      <c r="AN1" s="1" t="str">
         <v>RESMAY_MEN_ampli</v>
       </c>
-      <c r="Y1" s="1" t="str">
+      <c r="AO1" s="1" t="str">
         <v>VIA ACCES</v>
       </c>
-      <c r="Z1" s="1" t="str">
+      <c r="AP1" s="1" t="str">
         <v>RF</v>
       </c>
-      <c r="AA1" s="1" t="str">
+      <c r="AQ1" s="1" t="str">
         <v>mw</v>
       </c>
-      <c r="AB1" s="1" t="str">
+      <c r="AR1" s="1" t="str">
         <v>Val R cir</v>
       </c>
-      <c r="AC1" s="1" t="str">
+      <c r="AS1" s="1" t="str">
         <v>NMETIMAGpre</v>
       </c>
-      <c r="AD1" s="1" t="str">
+      <c r="AT1" s="1" t="str">
         <v>MIDA MH  IMATGE</v>
       </c>
-      <c r="AE1" s="1" t="str">
+      <c r="AU1" s="1" t="str">
         <v>BILOBUL</v>
       </c>
-      <c r="AF1" s="1" t="str">
+      <c r="AV1" s="1" t="str">
         <v>RES2</v>
       </c>
-      <c r="AG1" s="1" t="str">
+      <c r="AW1" s="1" t="str">
         <v>RES3</v>
       </c>
-      <c r="AH1" s="1" t="str">
+      <c r="AX1" s="1" t="str">
         <v>CIRSIMCOLON</v>
       </c>
-      <c r="AI1" s="1" t="str">
+      <c r="AY1" s="1" t="str">
         <v>MORBIDITAT</v>
       </c>
-      <c r="AJ1" s="1" t="str">
+      <c r="AZ1" s="1" t="str">
         <v>GRAU CLAVIEN</v>
       </c>
-      <c r="AK1" s="1" t="str">
+      <c r="BA1" s="1" t="str">
         <v>CCIndex</v>
       </c>
-      <c r="AL1" s="1" t="str">
+      <c r="BB1" s="1" t="str">
         <v>NMETAP</v>
       </c>
-      <c r="AM1" s="1" t="str">
+      <c r="BC1" s="1" t="str">
         <v>MIDA AP</v>
       </c>
-      <c r="AN1" s="1" t="str">
+      <c r="BD1" s="1" t="str">
         <v>MARGEN</v>
       </c>
-      <c r="AO1" s="1" t="str">
+      <c r="BE1" s="1" t="str">
         <v>INVMARG</v>
       </c>
-      <c r="AP1" s="1" t="str">
+      <c r="BF1" s="1" t="str">
         <v>DATA ULT CONT</v>
       </c>
-      <c r="AQ1" s="1" t="str">
+      <c r="BG1" s="1" t="str">
         <v>ALPSS</v>
       </c>
-      <c r="AR1" s="1" t="str">
+      <c r="BH1" s="1" t="str">
         <v>INSUFHEP isgls</v>
       </c>
-      <c r="AS1" s="1" t="str">
+      <c r="BI1" s="1" t="str">
         <v>ESTAT</v>
       </c>
-      <c r="AT1" s="1" t="str">
+      <c r="BJ1" s="1" t="str">
         <v>FISTBILI</v>
       </c>
-      <c r="AU1" s="1" t="str">
+      <c r="BK1" s="1" t="str">
         <v>INF ESPAI</v>
       </c>
-      <c r="AV1" s="1" t="str">
+      <c r="BL1" s="1" t="str">
         <v>HEMOPER</v>
       </c>
-      <c r="AW1" s="1" t="str">
+      <c r="BM1" s="1" t="str">
         <v>ASCITIS</v>
       </c>
-      <c r="AX1" s="1" t="str">
+      <c r="BN1" s="1" t="str">
         <v>REIQ</v>
       </c>
-      <c r="AY1" s="1" t="str">
+      <c r="BO1" s="1" t="str">
         <v>MORTALITAT</v>
       </c>
-      <c r="AZ1" s="1" t="str">
+      <c r="BP1" s="1" t="str">
         <v>RECIDIVA</v>
       </c>
-      <c r="BA1" s="1" t="str">
+      <c r="BQ1" s="1" t="str">
         <v>RECHEP</v>
       </c>
-      <c r="BB1" s="1" t="str">
+      <c r="BR1" s="1" t="str">
         <v>RECPUL</v>
       </c>
-      <c r="BC1" s="1" t="str">
+      <c r="BS1" s="1" t="str">
         <v>ESTADA</v>
       </c>
-      <c r="BD1" s="1" t="str">
+      <c r="BT1" s="1" t="str">
         <v>timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
+        <v/>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>DATA_INGRES</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>DATA_ALTA</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>DATA_DIAGNOSTIC</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>DATA_IQ</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>PES_KG</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <v>TALLA_CM</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <v>TEXT_DATA_CMD_ABANS</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <v>NUM_MH_DIAG</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <v>DIAMETRE_MAJOR_MH</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <v>NUM_RESECCIONS_H_PREV</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <v>DIST_MARGE_RESSECCIO</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <v>NUMERO_MH</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <v>MAJOR_MH</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <v>DATA_ULT_CONTROL</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="Q3" s="1" t="str">
         <v>Segmentectomia o Bisegmentectomia</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="R3" s="1" t="str">
         <v>bisegmentectomia 6/7</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="S3" s="1" t="str">
         <v>Bisegmentectomia6i7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="T3" s="1">
         <v>1703</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="U3" s="1" t="str">
         <v>13/12/2019</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="V3" s="1" t="str">
         <v>13/12/2019</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="W3" s="1" t="str">
         <v>10/12/2019</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="X3" s="1" t="str">
         <v>VIII,V</v>
       </c>
-      <c r="I2" s="1">
+      <c r="Y3" s="1">
         <v>1555</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="Z3" s="1" t="str">
         <v>Teresa</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="AA3" s="1" t="str">
         <v>Asensio</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="AB3" s="1" t="str">
         <v>Navarro</v>
       </c>
-      <c r="M2" s="1">
+      <c r="AC3" s="1">
         <v>11396316</v>
       </c>
-      <c r="N2" s="2">
+      <c r="AD3" s="2">
         <v>43900</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="AE3" s="1" t="str">
         <v>Si</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="AF3" s="1" t="str">
         <v>Dona</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="AG3" s="1" t="str">
         <v>68</v>
       </c>
-      <c r="R2" s="1" t="str">
+      <c r="AH3" s="1" t="str">
         <v>68</v>
       </c>
-      <c r="S2" s="1">
+      <c r="AI3" s="1">
         <v>159</v>
       </c>
-      <c r="T2" s="1">
+      <c r="AJ3" s="1">
         <v>27</v>
       </c>
-      <c r="U2" s="1">
+      <c r="AK3" s="1">
         <v>2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="AL3" s="2">
         <v>43747</v>
       </c>
-      <c r="W2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="X2" s="1" t="str">
+      <c r="AM3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN3" s="1" t="str">
         <v>Resecció Menor (&lt;3 segm)</v>
       </c>
-      <c r="Y2" s="1" t="str">
+      <c r="AO3" s="1" t="str">
         <v>1er temps (mobilització)</v>
       </c>
-      <c r="Z2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AB2" s="1" t="str">
+      <c r="AP3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR3" s="1" t="str">
         <v>Impressió R0</v>
       </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
         <v>1.8</v>
       </c>
-      <c r="AE2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AF2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AG2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AH2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AI2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AJ2" s="1" t="str">
+      <c r="AU3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ3" s="1" t="str">
         <v>0</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="BA3" s="1">
         <v>0</v>
       </c>
-      <c r="AL2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="BB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="1">
         <v>0.3</v>
       </c>
-      <c r="AO2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AP2" s="2">
+      <c r="BE3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF3" s="2">
         <v>44557</v>
       </c>
-      <c r="AQ2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AR2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AS2" s="1" t="str">
+      <c r="BG3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI3" s="1" t="str">
         <v>Viu</v>
       </c>
-      <c r="AT2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AU2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AV2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AW2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AX2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AY2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AZ2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BA2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BB2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BC2" s="1">
+      <c r="BJ3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS3" s="1">
         <v>6</v>
       </c>
-      <c r="BD2" s="2">
-        <v>44610.5780650463</v>
+      <c r="BT3" s="2">
+        <v>44610.63825827546</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>Old values</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44610.63825855324</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>10/03/2020</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>16/03/2020</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>10/03/2020</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>159</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v>00</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="N4" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <v>27/12/2021</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>New values</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44610.63825855324</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>10/03/2020</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>16/03/2020</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>10/03/2020</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v>159</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <v>00</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <v>27/12/2021</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="Q6" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB6" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF6" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG6" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH6" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN6" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR6" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI6" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>44610.638784166666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="Q7" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF7" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG7" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN7" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR7" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ7" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI7" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>44610.63963612269</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="Q8" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE8" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF8" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG8" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN8" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR8" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ8" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI8" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>44610.640781215276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="Q9" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF9" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG9" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH9" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN9" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR9" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ9" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI9" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>44610.64269980324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="Q10" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB10" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF10" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG10" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH10" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN10" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO10" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR10" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ10" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI10" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>44610.643448993054</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="Q11" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA11" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB11" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF11" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG11" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH11" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN11" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO11" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR11" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ11" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI11" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>44610.64464413194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="Q12" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA12" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB12" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF12" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG12" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH12" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN12" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR12" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ12" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI12" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>44610.646096909724</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="Q13" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S13" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA13" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB13" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF13" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG13" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH13" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN13" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO13" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR13" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ13" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI13" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>44610.64646679398</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="Q14" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB14" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF14" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG14" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH14" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN14" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR14" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ14" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI14" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>44610.65069454861</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="Q15" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z15" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA15" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB15" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF15" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG15" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH15" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN15" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO15" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR15" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ15" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI15" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>44610.65194229167</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BT15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BT18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2619,12 +2619,522 @@
         <v>6</v>
       </c>
       <c r="BT15" s="2">
-        <v>44610.65194229167</v>
+        <v>44610.651942268516</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="Q16" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z16" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA16" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB16" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF16" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG16" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH16" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN16" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO16" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR16" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ16" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI16" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>44610.87831287037</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="Q17" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA17" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB17" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF17" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG17" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH17" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN17" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR17" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ17" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI17" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>44610.892260636574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="Q18" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB18" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE18" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG18" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH18" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN18" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO18" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR18" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ18" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI18" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>44610.893191875</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BT15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BT18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT18"/>
+  <dimension ref="A1:BT21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3132,9 +3132,519 @@
         <v>44610.893191875</v>
       </c>
     </row>
+    <row r="19">
+      <c r="Q19" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB19" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF19" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG19" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH19" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN19" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO19" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR19" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ19" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI19" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT19" s="2">
+        <v>44611.78876434028</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="Q20" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S20" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA20" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB20" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF20" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG20" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH20" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN20" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO20" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR20" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ20" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI20" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS20" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>44611.79149173611</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="Q21" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S21" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U21" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA21" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB21" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF21" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG21" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH21" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN21" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO21" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR21" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ21" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI21" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>44611.79204508102</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BT18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BT21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT21"/>
+  <dimension ref="A1:BT34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3639,12 +3639,2222 @@
         <v>6</v>
       </c>
       <c r="BT21" s="2">
-        <v>44611.79204508102</v>
+        <v>44611.792045069444</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="Q22" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S22" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA22" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB22" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF22" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG22" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH22" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN22" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO22" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR22" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ22" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI22" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>44611.80398730324</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="Q23" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S23" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z23" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA23" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB23" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF23" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG23" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH23" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN23" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO23" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR23" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ23" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI23" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS23" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>44611.80544289352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="Q24" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z24" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA24" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB24" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF24" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG24" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH24" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN24" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO24" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR24" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ24" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI24" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS24" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>44611.806217881945</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="Q25" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA25" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB25" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF25" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG25" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH25" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN25" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO25" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR25" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ25" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI25" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS25" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT25" s="2">
+        <v>44611.80822443287</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="Q26" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R26" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S26" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U26" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z26" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB26" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF26" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG26" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH26" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN26" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO26" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR26" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ26" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI26" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>44611.81063714121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="Q27" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R27" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S27" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U27" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z27" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB27" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF27" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG27" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH27" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN27" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO27" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR27" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ27" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI27" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS27" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>44611.81119450231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="Q28" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R28" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S28" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U28" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W28" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X28" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z28" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA28" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB28" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF28" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG28" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH28" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN28" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO28" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR28" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ28" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI28" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT28" s="2">
+        <v>44611.81138876158</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="Q29" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R29" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S29" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U29" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W29" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X29" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z29" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA29" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB29" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF29" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG29" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH29" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN29" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO29" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR29" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ29" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI29" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT29" s="2">
+        <v>44611.812506967595</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="Q30" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U30" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W30" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X30" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z30" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA30" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB30" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG30" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH30" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN30" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO30" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR30" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ30" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI30" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>44611.81362612268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="Q31" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S31" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U31" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W31" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X31" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z31" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA31" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB31" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG31" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH31" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN31" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO31" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR31" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ31" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI31" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT31" s="2">
+        <v>44611.8146062963</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="Q32" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S32" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U32" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W32" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X32" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z32" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA32" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB32" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG32" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH32" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN32" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO32" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR32" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ32" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF32" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI32" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT32" s="2">
+        <v>44611.81639922454</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="Q33" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S33" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U33" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W33" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X33" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z33" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA33" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB33" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG33" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH33" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN33" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO33" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR33" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ33" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF33" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI33" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT33" s="2">
+        <v>44611.81681506945</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="Q34" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U34" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W34" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X34" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z34" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA34" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB34" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF34" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG34" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH34" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN34" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO34" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR34" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ34" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI34" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT34" s="2">
+        <v>44611.819072962964</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BT21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BT34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT34"/>
+  <dimension ref="A1:BT36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5852,9 +5852,349 @@
         <v>44611.819072962964</v>
       </c>
     </row>
+    <row r="35">
+      <c r="Q35" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U35" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W35" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X35" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA35" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB35" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF35" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG35" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH35" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN35" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO35" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR35" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ35" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF35" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI35" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS35" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT35" s="2">
+        <v>44611.82183226852</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="Q36" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <v>bisegmentectomia 6/7</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <v>Bisegmentectomia6i7</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1703</v>
+      </c>
+      <c r="U36" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <v>13/12/2019</v>
+      </c>
+      <c r="W36" s="1" t="str">
+        <v>10/12/2019</v>
+      </c>
+      <c r="X36" s="1" t="str">
+        <v>VIII,V</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1555</v>
+      </c>
+      <c r="Z36" s="1" t="str">
+        <v>Teresa</v>
+      </c>
+      <c r="AA36" s="1" t="str">
+        <v>Asensio</v>
+      </c>
+      <c r="AB36" s="1" t="str">
+        <v>Navarro</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>11396316</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>43900</v>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <v>Dona</v>
+      </c>
+      <c r="AG36" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AH36" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>159</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>27</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>43747</v>
+      </c>
+      <c r="AM36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AN36" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="AO36" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="AP36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR36" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AZ36" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>44557</v>
+      </c>
+      <c r="BG36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BH36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BI36" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="BJ36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BK36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BL36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BM36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BN36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BO36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BP36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BQ36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BR36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BS36" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT36" s="2">
+        <v>44611.82285181713</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BT34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BT36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BF6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,201 +449,207 @@
         <v>ASA</v>
       </c>
       <c r="V1" s="1" t="str">
+        <v>EPPO</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <v>RESMAY_MEN_ampli</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <v>VIA ACCES</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <v>RF</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <v>mw</v>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <v>Val R cir</v>
+      </c>
+      <c r="AB1" s="1" t="str">
+        <v>NMETIMAGpre</v>
+      </c>
+      <c r="AC1" s="1" t="str">
+        <v>MIDA MH  IMATGE</v>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <v>BILOBUL</v>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <v>RES2</v>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <v>CIRSIMCOLON</v>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <v>MORBIDITAT</v>
+      </c>
+      <c r="AH1" s="1" t="str">
+        <v>GRAU CLAVIEN</v>
+      </c>
+      <c r="AI1" s="1" t="str">
+        <v>CCIndex</v>
+      </c>
+      <c r="AJ1" s="1" t="str">
+        <v>NMETAP</v>
+      </c>
+      <c r="AK1" s="1" t="str">
+        <v>MIDA AP</v>
+      </c>
+      <c r="AL1" s="1" t="str">
+        <v>MARGEN</v>
+      </c>
+      <c r="AM1" s="1" t="str">
+        <v>INVMARG</v>
+      </c>
+      <c r="AN1" s="1" t="str">
+        <v>TRATMARGE</v>
+      </c>
+      <c r="AO1" s="1" t="str">
+        <v>DATA ULT CONT</v>
+      </c>
+      <c r="AP1" s="1" t="str">
+        <v>ALPSS</v>
+      </c>
+      <c r="AQ1" s="1" t="str">
+        <v>INSUFHEP isgls</v>
+      </c>
+      <c r="AR1" s="1" t="str">
+        <v>ESTAT</v>
+      </c>
+      <c r="AS1" s="1" t="str">
+        <v>FISTBILI</v>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <v>INF ESPAI</v>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <v>HEMOPER</v>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <v>ASCITIS</v>
+      </c>
+      <c r="AW1" s="1" t="str">
+        <v>REIQ</v>
+      </c>
+      <c r="AX1" s="1" t="str">
+        <v>MORTALITAT</v>
+      </c>
+      <c r="AY1" s="1" t="str">
+        <v>RECIDIVA</v>
+      </c>
+      <c r="AZ1" s="1" t="str">
+        <v>RECHEP</v>
+      </c>
+      <c r="BA1" s="1" t="str">
+        <v>RECPUL</v>
+      </c>
+      <c r="BB1" s="1" t="str">
+        <v>ESTADA</v>
+      </c>
+      <c r="BC1" s="1" t="str">
+        <v>timestamp</v>
+      </c>
+      <c r="BD1" s="1" t="str">
         <v>DATAIQCOLON</v>
       </c>
-      <c r="W1" s="1" t="str">
-        <v>EPPO</v>
-      </c>
-      <c r="X1" s="1" t="str">
-        <v>RESMAY_MEN_ampli</v>
-      </c>
-      <c r="Y1" s="1" t="str">
-        <v>VIA ACCES</v>
-      </c>
-      <c r="Z1" s="1" t="str">
-        <v>RF</v>
-      </c>
-      <c r="AA1" s="1" t="str">
-        <v>mw</v>
-      </c>
-      <c r="AB1" s="1" t="str">
-        <v>Val R cir</v>
-      </c>
-      <c r="AC1" s="1" t="str">
-        <v>NMETIMAGpre</v>
-      </c>
-      <c r="AD1" s="1" t="str">
-        <v>MIDA MH  IMATGE</v>
-      </c>
-      <c r="AE1" s="1" t="str">
-        <v>BILOBUL</v>
-      </c>
-      <c r="AF1" s="1" t="str">
-        <v>RES2</v>
-      </c>
-      <c r="AG1" s="1" t="str">
+      <c r="BE1" s="1" t="str">
         <v>RES3</v>
       </c>
-      <c r="AH1" s="1" t="str">
-        <v>CIRSIMCOLON</v>
-      </c>
-      <c r="AI1" s="1" t="str">
-        <v>MORBIDITAT</v>
-      </c>
-      <c r="AJ1" s="1" t="str">
-        <v>GRAU CLAVIEN</v>
-      </c>
-      <c r="AK1" s="1" t="str">
-        <v>CCIndex</v>
-      </c>
-      <c r="AL1" s="1" t="str">
-        <v>NMETAP</v>
-      </c>
-      <c r="AM1" s="1" t="str">
-        <v>MIDA AP</v>
-      </c>
-      <c r="AN1" s="1" t="str">
-        <v>MARGEN</v>
-      </c>
-      <c r="AO1" s="1" t="str">
-        <v>INVMARG</v>
-      </c>
-      <c r="AP1" s="1" t="str">
-        <v>DATA ULT CONT</v>
-      </c>
-      <c r="AQ1" s="1" t="str">
-        <v>ALPSS</v>
-      </c>
-      <c r="AR1" s="1" t="str">
-        <v>INSUFHEP isgls</v>
-      </c>
-      <c r="AS1" s="1" t="str">
-        <v>ESTAT</v>
-      </c>
-      <c r="AT1" s="1" t="str">
-        <v>FISTBILI</v>
-      </c>
-      <c r="AU1" s="1" t="str">
-        <v>INF ESPAI</v>
-      </c>
-      <c r="AV1" s="1" t="str">
-        <v>HEMOPER</v>
-      </c>
-      <c r="AW1" s="1" t="str">
-        <v>ASCITIS</v>
-      </c>
-      <c r="AX1" s="1" t="str">
-        <v>REIQ</v>
-      </c>
-      <c r="AY1" s="1" t="str">
-        <v>MORTALITAT</v>
-      </c>
-      <c r="AZ1" s="1" t="str">
-        <v>RECIDIVA</v>
-      </c>
-      <c r="BA1" s="1" t="str">
-        <v>RECHEP</v>
-      </c>
-      <c r="BB1" s="1" t="str">
-        <v>RECPUL</v>
-      </c>
-      <c r="BC1" s="1" t="str">
-        <v>ESTADA</v>
-      </c>
-      <c r="BD1" s="1" t="str">
-        <v>timestamp</v>
+      <c r="BF1" s="1" t="str">
+        <v>GRAU FB</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>Segmentectomia o Bisegmentectomia</v>
+        <v>Resecció/ns limitada/es</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>bisegmentectomia 6/7</v>
+        <v>segmentect 4b + tres RL, una al cavocava dret</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>Bisegmentectomia6i7</v>
+        <v>no reglada</v>
       </c>
       <c r="D2" s="1">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>13/12/2019</v>
+        <v>14/06/2019</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>13/12/2019</v>
+        <v>24/07/2020</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>10/12/2019</v>
+        <v>23/05/2019</v>
       </c>
       <c r="H2" s="1" t="str">
-        <v>VIII,V</v>
+        <v>IV,VII,VI,VIII</v>
       </c>
       <c r="I2" s="1">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="J2" s="1" t="str">
-        <v>Teresa</v>
+        <v>Josep</v>
       </c>
       <c r="K2" s="1" t="str">
-        <v>Asensio</v>
+        <v>Moline</v>
       </c>
       <c r="L2" s="1" t="str">
-        <v>Navarro</v>
+        <v>Masana</v>
       </c>
       <c r="M2" s="1">
-        <v>11396316</v>
+        <v>16384162</v>
       </c>
       <c r="N2" s="2">
-        <v>43900</v>
+        <v>43812</v>
       </c>
       <c r="O2" s="1" t="str">
         <v>Si</v>
       </c>
       <c r="P2" s="1" t="str">
-        <v>Dona</v>
+        <v>Home</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="str">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="S2" s="1">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="T2" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
-      </c>
-      <c r="V2" s="2">
-        <v>43747</v>
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <v>No</v>
       </c>
       <c r="W2" s="1" t="str">
-        <v>No</v>
+        <v>Resecció Menor (&lt;3 segm)</v>
       </c>
       <c r="X2" s="1" t="str">
-        <v>Resecció Menor (&lt;3 segm)</v>
+        <v>Oberta</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <v>1er temps (mobilització)</v>
+        <v>No</v>
       </c>
       <c r="Z2" s="1" t="str">
         <v>No</v>
       </c>
       <c r="AA2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AB2" s="1" t="str">
         <v>Impressió R0</v>
       </c>
+      <c r="AB2" s="1">
+        <v>4</v>
+      </c>
       <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1.8</v>
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1" t="str">
+        <v>Si</v>
       </c>
       <c r="AE2" s="1" t="str">
         <v>No</v>
@@ -652,43 +658,43 @@
         <v>No</v>
       </c>
       <c r="AG2" s="1" t="str">
-        <v>No</v>
+        <v>Si</v>
       </c>
       <c r="AH2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AI2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AJ2" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL2" s="1">
         <v>0</v>
       </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AO2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>44557</v>
+      <c r="AM2" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN2" s="1" t="str">
+        <v>VSD</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>43984</v>
+      </c>
+      <c r="AP2" s="1" t="str">
+        <v>No</v>
       </c>
       <c r="AQ2" s="1" t="str">
         <v>No</v>
       </c>
       <c r="AR2" s="1" t="str">
-        <v>No</v>
+        <v>Viu</v>
       </c>
       <c r="AS2" s="1" t="str">
-        <v>Viu</v>
+        <v>No</v>
       </c>
       <c r="AT2" s="1" t="str">
         <v>No</v>
@@ -706,197 +712,689 @@
         <v>No</v>
       </c>
       <c r="AY2" s="1" t="str">
-        <v>No</v>
+        <v>Si</v>
       </c>
       <c r="AZ2" s="1" t="str">
-        <v>No</v>
+        <v>Si</v>
       </c>
       <c r="BA2" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="BB2" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>44613.597607337964</v>
+      <c r="BB2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>44613.610726990744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>Segmentectomia o Bisegmentectomia</v>
+        <v>Hepatectomia major + resecció contralateral</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>bisegmentectomia 6/7</v>
+        <v>hepat esquerra i rl 7</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>Bisegmentectomia6i7</v>
+        <v>Segmentectomia1a8,hepatectomiaEsquerra</v>
       </c>
       <c r="D3" s="1">
-        <v>1703</v>
+        <v>1639</v>
       </c>
       <c r="E3" s="1" t="str">
-        <v>13/12/2019</v>
+        <v>14/12/2018</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v>13/12/2019</v>
+        <v>08/03/2021</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>10/12/2019</v>
+        <v>03/11/2018</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>VIII,V</v>
+        <v>II</v>
       </c>
       <c r="I3" s="1">
-        <v>1555</v>
+        <v>1502</v>
       </c>
       <c r="J3" s="1" t="str">
-        <v>Teresa</v>
+        <v>JOSE</v>
       </c>
       <c r="K3" s="1" t="str">
-        <v>Asensio</v>
+        <v>MORALES</v>
       </c>
       <c r="L3" s="1" t="str">
-        <v>Navarro</v>
+        <v>PEREZ</v>
       </c>
       <c r="M3" s="1">
-        <v>11396316</v>
+        <v>13804187</v>
       </c>
       <c r="N3" s="2">
-        <v>43900</v>
+        <v>43539</v>
       </c>
       <c r="O3" s="1" t="str">
         <v>Si</v>
       </c>
       <c r="P3" s="1" t="str">
-        <v>Dona</v>
+        <v>Home</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="R3" s="1" t="str">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="S3" s="1">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="T3" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1">
         <v>2</v>
       </c>
-      <c r="V3" s="2">
-        <v>43747</v>
+      <c r="V3" s="1" t="str">
+        <v>No</v>
       </c>
       <c r="W3" s="1" t="str">
-        <v>No</v>
+        <v>Resecció Major (&gt;= 3 segm)</v>
       </c>
       <c r="X3" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH3" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AM3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>44301</v>
+      </c>
+      <c r="AP3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR3" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ3" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA3" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>44613.61087638889</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>42827</v>
+      </c>
+      <c r="BE3" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>Hepatectomia esquerra</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>Hepatectomia esquerra + RF s.5</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>no reglada</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1697</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>15/11/2019</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>05/03/2021</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>01/08/2019</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <v>III,IV</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1550</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <v>Jaume</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>Verges</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v>Mestres</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11257435</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43865</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <v>78</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <v>65</v>
+      </c>
+      <c r="S4" s="1">
+        <v>160</v>
+      </c>
+      <c r="T4" s="1">
+        <v>25.39</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W4" s="1" t="str">
         <v>Resecció Menor (&lt;3 segm)</v>
       </c>
-      <c r="Y3" s="1" t="str">
+      <c r="X4" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="AD4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH4" s="1" t="str">
+        <v>I</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>8.7</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>44512</v>
+      </c>
+      <c r="AP4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR4" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AT4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA4" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>44613.61103706018</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>43306</v>
+      </c>
+      <c r="BE4" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>Hepatectomia major + resecció contralateral</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Hepatect esqu i RL 8 i RF 5</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>Segmentectomia1a8,hepatectomiaEsquerra</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1687</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>17/05/2019</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>26/07/2019</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>22/03/2019</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <v>III,II,VIII,V,IV</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1543</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <v>Tomas</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v>Mata</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <v>Beltran</v>
+      </c>
+      <c r="M5" s="1">
+        <v>13109704</v>
+      </c>
+      <c r="N5" s="2">
+        <v>43784</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <v>83</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="S5" s="1">
+        <v>160</v>
+      </c>
+      <c r="T5" s="1">
+        <v>26</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <v>Resecció Major (&gt;= 3 segm)</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <v>Si, simultània amb la hepatectomia</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AF5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH5" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AM5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>44077</v>
+      </c>
+      <c r="AP5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR5" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY5" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>44613.61120046296</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M6" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S6" s="1">
+        <v>175</v>
+      </c>
+      <c r="T6" s="1">
+        <v>25</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X6" s="1" t="str">
         <v>1er temps (mobilització)</v>
       </c>
-      <c r="Z3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AA3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AB3" s="1" t="str">
-        <v>Impressió R0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AE3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AF3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AG3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AH3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AI3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
+      <c r="Y6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH6" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL6" s="1">
         <v>0</v>
       </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AO3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>44557</v>
-      </c>
-      <c r="AQ3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AR3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AS3" s="1" t="str">
+      <c r="AM6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN6" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR6" s="1" t="str">
         <v>Viu</v>
       </c>
-      <c r="AT3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AU3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AV3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AW3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AX3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AY3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="AZ3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BA3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BB3" s="1" t="str">
-        <v>No</v>
-      </c>
-      <c r="BC3" s="1">
+      <c r="AS6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA6" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB6" s="1">
         <v>6</v>
       </c>
-      <c r="BD3" s="2">
-        <v>44613.59837613426</v>
+      <c r="BC6" s="2">
+        <v>44613.61138408565</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>43721</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BD3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BF6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF6"/>
+  <dimension ref="A1:BF13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1392,9 +1392,1172 @@
         <v>43721</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M7" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N7" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S7" s="1">
+        <v>170</v>
+      </c>
+      <c r="T7" s="1">
+        <v>26</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH7" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR7" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>44614.35327677083</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE7" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M8" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N8" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S8" s="1">
+        <v>170</v>
+      </c>
+      <c r="T8" s="1">
+        <v>26</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH8" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR8" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY8" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>44614.35377028935</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE8" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M9" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N9" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S9" s="1">
+        <v>175</v>
+      </c>
+      <c r="T9" s="1">
+        <v>25</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH9" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN9" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR9" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA9" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>44614.35471002315</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M10" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N10" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S10" s="1">
+        <v>175</v>
+      </c>
+      <c r="T10" s="1">
+        <v>25</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH10" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN10" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR10" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA10" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>44614.35498545139</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N11" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S11" s="1">
+        <v>175</v>
+      </c>
+      <c r="T11" s="1">
+        <v>25</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA11" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH11" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN11" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR11" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA11" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>44614.35590646991</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M12" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N12" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S12" s="1">
+        <v>175</v>
+      </c>
+      <c r="T12" s="1">
+        <v>25</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA12" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH12" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN12" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR12" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA12" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>44614.35669915509</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M13" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N13" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S13" s="1">
+        <v>175</v>
+      </c>
+      <c r="T13" s="1">
+        <v>25</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA13" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH13" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN13" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR13" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>44614.35753907407</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>43721</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BF6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BF13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF13"/>
+  <dimension ref="A1:BG33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +559,9 @@
       <c r="BF1" s="1" t="str">
         <v>GRAU FB</v>
       </c>
+      <c r="BG1" s="1" t="str">
+        <v>Data EXITUS</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -2382,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="BC12" s="2">
-        <v>44614.35669915509</v>
+        <v>44614.35669914352</v>
       </c>
       <c r="BD12" s="2">
         <v>43721</v>
@@ -2555,9 +2558,3316 @@
         <v>43721</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M14" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N14" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S14" s="1">
+        <v>175</v>
+      </c>
+      <c r="T14" s="1">
+        <v>25</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH14" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN14" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR14" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA14" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>44614.36044178241</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M15" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N15" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S15" s="1">
+        <v>175</v>
+      </c>
+      <c r="T15" s="1">
+        <v>25</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA15" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH15" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN15" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR15" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA15" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>44614.36387356481</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M16" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N16" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S16" s="1">
+        <v>175</v>
+      </c>
+      <c r="T16" s="1">
+        <v>25</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA16" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH16" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN16" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR16" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA16" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>44614.364288136574</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M17" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N17" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S17" s="1">
+        <v>170</v>
+      </c>
+      <c r="T17" s="1">
+        <v>26</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA17" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH17" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR17" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY17" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>44614.36597085648</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE17" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M18" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S18" s="1">
+        <v>170</v>
+      </c>
+      <c r="T18" s="1">
+        <v>26</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH18" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR18" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY18" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>44614.368723831016</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE18" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M19" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S19" s="1">
+        <v>170</v>
+      </c>
+      <c r="T19" s="1">
+        <v>26</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH19" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR19" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY19" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>44614.3706102662</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE19" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>bisegment 2/3 i RL 5</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>Bisegmentectomia2i3, Segmentectomia1a8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <v>10/06/19</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <v>V,IIVA</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1537</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <v>Fernandez</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <v>Lopez</v>
+      </c>
+      <c r="M20" s="1">
+        <v>11128153</v>
+      </c>
+      <c r="N20" s="2">
+        <v>43748</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="S20" s="1">
+        <v>171</v>
+      </c>
+      <c r="T20" s="1">
+        <v>22</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <v>Laparoscòpia</v>
+      </c>
+      <c r="Y20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA20" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH20" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN20" s="1" t="str">
+        <v>aquamantis</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>44174</v>
+      </c>
+      <c r="AP20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR20" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ20" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA20" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>44614.37074907407</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M21" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N21" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S21" s="1">
+        <v>170</v>
+      </c>
+      <c r="T21" s="1">
+        <v>26</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA21" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH21" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR21" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY21" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>44614.37224068287</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE21" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M22" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N22" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S22" s="1">
+        <v>170</v>
+      </c>
+      <c r="T22" s="1">
+        <v>26</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA22" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH22" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR22" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY22" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>44614.37340285879</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE22" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>bisegment 2/3 i RL 5</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>Bisegmentectomia2i3, Segmentectomia1a8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <v>10/06/19</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <v>V,IIVA</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1537</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <v>Fernandez</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <v>Lopez</v>
+      </c>
+      <c r="M23" s="1">
+        <v>11128153</v>
+      </c>
+      <c r="N23" s="2">
+        <v>43748</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="S23" s="1">
+        <v>171</v>
+      </c>
+      <c r="T23" s="1">
+        <v>22</v>
+      </c>
+      <c r="U23" s="1">
+        <v>3</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <v>Laparoscòpia</v>
+      </c>
+      <c r="Y23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA23" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH23" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN23" s="1" t="str">
+        <v>aquamantis</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>44174</v>
+      </c>
+      <c r="AP23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR23" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ23" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA23" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>44614.37365047454</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>Segmentectomia 5-6 i part del 7</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1715</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <v>22/11/2019</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <v>VI,VII,V</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1566</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <v>Callergues</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="M24" s="1">
+        <v>13203046</v>
+      </c>
+      <c r="N24" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="S24" s="1">
+        <v>169</v>
+      </c>
+      <c r="T24" s="1">
+        <v>23</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA24" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH24" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>44155</v>
+      </c>
+      <c r="AP24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR24" s="1" t="str">
+        <v>Mort (amb recidiva)</v>
+      </c>
+      <c r="AS24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX24" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ24" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>44614.37381434028</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>44049</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M25" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N25" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S25" s="1">
+        <v>170</v>
+      </c>
+      <c r="T25" s="1">
+        <v>26</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA25" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH25" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR25" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY25" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>44614.37632378472</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE25" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M26" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N26" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R26" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S26" s="1">
+        <v>170</v>
+      </c>
+      <c r="T26" s="1">
+        <v>26</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH26" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR26" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY26" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>44614.3766131713</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE26" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M27" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N27" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R27" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S27" s="1">
+        <v>170</v>
+      </c>
+      <c r="T27" s="1">
+        <v>26</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH27" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR27" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY27" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>44614.37728820602</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE27" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M28" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N28" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R28" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S28" s="1">
+        <v>170</v>
+      </c>
+      <c r="T28" s="1">
+        <v>26</v>
+      </c>
+      <c r="U28" s="1">
+        <v>2</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W28" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X28" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA28" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH28" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR28" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY28" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>44614.377607476854</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE28" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>bisegment 2/3 i RL 5</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>Bisegmentectomia2i3, Segmentectomia1a8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <v>10/06/19</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <v>V,IIVA</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1537</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <v>Fernandez</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <v>Lopez</v>
+      </c>
+      <c r="M29" s="1">
+        <v>11128153</v>
+      </c>
+      <c r="N29" s="2">
+        <v>43748</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="R29" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="S29" s="1">
+        <v>171</v>
+      </c>
+      <c r="T29" s="1">
+        <v>22</v>
+      </c>
+      <c r="U29" s="1">
+        <v>3</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W29" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X29" s="1" t="str">
+        <v>Laparoscòpia</v>
+      </c>
+      <c r="Y29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA29" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH29" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN29" s="1" t="str">
+        <v>aquamantis</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>44174</v>
+      </c>
+      <c r="AP29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR29" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ29" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA29" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>44614.37784271991</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>Segmentectomia 5-6 i part del 7</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1715</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <v>22/11/2019</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <v>VI,VII,V</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1566</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <v>Callergues</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="M30" s="1">
+        <v>13203046</v>
+      </c>
+      <c r="N30" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="S30" s="1">
+        <v>169</v>
+      </c>
+      <c r="T30" s="1">
+        <v>23</v>
+      </c>
+      <c r="U30" s="1">
+        <v>3</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W30" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X30" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA30" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH30" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>44155</v>
+      </c>
+      <c r="AP30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR30" s="1" t="str">
+        <v>Mort (amb recidiva)</v>
+      </c>
+      <c r="AS30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX30" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ30" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>44614.37801583333</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>44049</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>Segmentectomia 5-6 i part del 7</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1715</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <v>22/11/2019</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <v>VI,VII,V</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1566</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <v>Callergues</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="M31" s="1">
+        <v>13203046</v>
+      </c>
+      <c r="N31" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="S31" s="1">
+        <v>169</v>
+      </c>
+      <c r="T31" s="1">
+        <v>23</v>
+      </c>
+      <c r="U31" s="1">
+        <v>3</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W31" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X31" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA31" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH31" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>44155</v>
+      </c>
+      <c r="AP31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR31" s="1" t="str">
+        <v>Mort (amb recidiva)</v>
+      </c>
+      <c r="AS31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX31" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ31" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>44614.381890625</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>44049</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <v>Segmentectomia 5-6 i part del 7</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1715</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <v>22/11/2019</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <v>VI,VII,V</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1566</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <v>Callergues</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="M32" s="1">
+        <v>13203046</v>
+      </c>
+      <c r="N32" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="S32" s="1">
+        <v>169</v>
+      </c>
+      <c r="T32" s="1">
+        <v>23</v>
+      </c>
+      <c r="U32" s="1">
+        <v>3</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W32" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X32" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA32" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH32" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>44155</v>
+      </c>
+      <c r="AP32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR32" s="1" t="str">
+        <v>Mort (amb recidiva)</v>
+      </c>
+      <c r="AS32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX32" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ32" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>44614.38571747685</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>44049</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <v>Segmentectomia 5-6 i part del 7</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1715</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <v>22/11/2019</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <v>VI,VII,V</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1566</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <v>Callergues</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="M33" s="1">
+        <v>13203046</v>
+      </c>
+      <c r="N33" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="S33" s="1">
+        <v>169</v>
+      </c>
+      <c r="T33" s="1">
+        <v>23</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3</v>
+      </c>
+      <c r="V33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W33" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X33" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA33" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH33" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>44155</v>
+      </c>
+      <c r="AP33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR33" s="1" t="str">
+        <v>Mort (amb recidiva)</v>
+      </c>
+      <c r="AS33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX33" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ33" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>44614.38677362268</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>44049</v>
+      </c>
+      <c r="BG33" s="2">
+        <v>44155</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BF13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BG33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/register/completedRegister.xlsx
+++ b/register/completedRegister.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG33"/>
+  <dimension ref="A1:BG39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5856,18 +5856,1014 @@
         <v>6</v>
       </c>
       <c r="BC33" s="2">
-        <v>44614.38677362268</v>
+        <v>44614.38677361111</v>
       </c>
       <c r="BD33" s="2">
         <v>44049</v>
       </c>
       <c r="BG33" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M34" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N34" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S34" s="1">
+        <v>175</v>
+      </c>
+      <c r="T34" s="1">
+        <v>25</v>
+      </c>
+      <c r="U34" s="1">
+        <v>2</v>
+      </c>
+      <c r="V34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W34" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X34" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA34" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH34" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN34" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR34" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX34" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA34" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>44614.41421746528</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M35" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N35" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S35" s="1">
+        <v>170</v>
+      </c>
+      <c r="T35" s="1">
+        <v>26</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2</v>
+      </c>
+      <c r="V35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W35" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X35" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA35" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH35" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR35" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY35" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC35" s="2">
+        <v>44614.4144787037</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE35" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <v>segmentect 5 i 2 RL</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1694</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <v>18/10/2019</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <v>16/07/2019</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <v>II,V,VIII,VII</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1548</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <v>Fco jesus</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <v>Herrera</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <v>Exposito</v>
+      </c>
+      <c r="M36" s="1">
+        <v>13611095</v>
+      </c>
+      <c r="N36" s="2">
+        <v>43846</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <v>61</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <v>76</v>
+      </c>
+      <c r="S36" s="1">
+        <v>175</v>
+      </c>
+      <c r="T36" s="1">
+        <v>25</v>
+      </c>
+      <c r="U36" s="1">
+        <v>2</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W36" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X36" s="1" t="str">
+        <v>1er temps (mobilització)</v>
+      </c>
+      <c r="Y36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA36" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH36" s="1" t="str">
+        <v>IIIa</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN36" s="1" t="str">
+        <v>ampli quirúgica i Aquamantis</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>44243</v>
+      </c>
+      <c r="AP36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR36" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AU36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX36" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BA36" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC36" s="2">
+        <v>44614.415460289354</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <v>segmentectomia 5</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1676</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <v>26/6/19</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <v>V,IV</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1534</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <v>Francesc</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <v>Dolera</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <v>bernal</v>
+      </c>
+      <c r="M37" s="1">
+        <v>12817360</v>
+      </c>
+      <c r="N37" s="2">
+        <v>43725</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="S37" s="1">
+        <v>170</v>
+      </c>
+      <c r="T37" s="1">
+        <v>26</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2</v>
+      </c>
+      <c r="V37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W37" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X37" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA37" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH37" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AP37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR37" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY37" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>44614.41562829861</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>43175</v>
+      </c>
+      <c r="BE37" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <v>bisegment 2/3 i RL 5</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <v>Bisegmentectomia2i3, Segmentectomia1a8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <v>19/07/2019</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <v>10/06/2019</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <v>V,IIVA</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1537</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <v>Manuel</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <v>Fernandez</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <v>Lopez</v>
+      </c>
+      <c r="M38" s="1">
+        <v>11128153</v>
+      </c>
+      <c r="N38" s="2">
+        <v>43748</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <v>80</v>
+      </c>
+      <c r="R38" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="S38" s="1">
+        <v>171</v>
+      </c>
+      <c r="T38" s="1">
+        <v>22</v>
+      </c>
+      <c r="U38" s="1">
+        <v>3</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W38" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X38" s="1" t="str">
+        <v>Laparoscòpia</v>
+      </c>
+      <c r="Y38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA38" s="1" t="str">
+        <v>Impressió R1</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AH38" s="1" t="str">
+        <v>II</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AN38" s="1" t="str">
+        <v>aquamantis</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>44174</v>
+      </c>
+      <c r="AP38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR38" s="1" t="str">
+        <v>Viu</v>
+      </c>
+      <c r="AS38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ38" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="BA38" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>44614.417259421294</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>Segmentectomia o Bisegmentectomia</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <v>Segmentectomia 5-6 i part del 7</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <v>Segmentectomia1a8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1715</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>21/02/2020</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <v>22/11/2019</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <v>VI,VII,V</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1566</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <v>Enrique</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <v>Callergues</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="M39" s="1">
+        <v>13203046</v>
+      </c>
+      <c r="N39" s="2">
+        <v>43992</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <v>Home</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="R39" s="1" t="str">
+        <v>67</v>
+      </c>
+      <c r="S39" s="1">
+        <v>169</v>
+      </c>
+      <c r="T39" s="1">
+        <v>23</v>
+      </c>
+      <c r="U39" s="1">
+        <v>3</v>
+      </c>
+      <c r="V39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="W39" s="1" t="str">
+        <v>Resecció Menor (&lt;3 segm)</v>
+      </c>
+      <c r="X39" s="1" t="str">
+        <v>Oberta</v>
+      </c>
+      <c r="Y39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="Z39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AA39" s="1" t="str">
+        <v>Impressió R0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AE39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AF39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AG39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AH39" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>44155</v>
+      </c>
+      <c r="AP39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AQ39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AR39" s="1" t="str">
+        <v>Mort (amb recidiva)</v>
+      </c>
+      <c r="AS39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AT39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AU39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AV39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AW39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AX39" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="AY39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="AZ39" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>44614.417500868054</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>44049</v>
+      </c>
+      <c r="BG39" s="2">
         <v>44155</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BG33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BG39"/>
   </ignoredErrors>
 </worksheet>
 </file>